--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="6500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>Aktør</t>
   </si>
@@ -45,21 +45,6 @@
     <t>Roadmap</t>
   </si>
   <si>
-    <t>status.govcloud.dk</t>
-  </si>
-  <si>
-    <t>collab.govcloud.dk</t>
-  </si>
-  <si>
-    <t>reg.govcloud.dk</t>
-  </si>
-  <si>
-    <t>k8s.govcloud.dk</t>
-  </si>
-  <si>
-    <t>directory.govcloud.dk</t>
-  </si>
-  <si>
     <t>service.govcloud.dk</t>
   </si>
   <si>
@@ -90,116 +75,12 @@
     <t>Som anvender ønsker jeg at udbyder kan overvåger mine services og kan forsøge at genstarte applikationer, så jeg ikke behøves at reagere på simple (dem der kan klares ved en genstart) nedbrud.</t>
   </si>
   <si>
-    <t>[servicemodel] beskriver udbyders og anvenders ansvar</t>
-  </si>
-  <si>
-    <t>[proces] beskriver at udbyder starter processen og at [collab.] anvedndes i håndteringen af hændelsen.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[status.] viser oversigt over anvenders services
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> [status.] viser oversigt over platformens services</t>
-    </r>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg, at udbyderen overvåger mine services og kontakter mig ved ikke-simple nedbrud, så vi sammen kan påbegynde fejlsøgning og fejlretning.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[proces] beskriver, hvornår der tages kontakt til anvender
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[proces] beskriver, hvordan samarbejdet om fejlsøgning og fejlretning foretages samt hvordan det konkluderes, at servicen kører igen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>[proces] beskriver, hvornår der tages kontakt til 3. part</t>
-    </r>
-  </si>
-  <si>
-    <t>[collab.] opretter automatisk sagerved incidents</t>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg at kunne sende et image til platformen og sætte en label på, så jeg selv nemt kan styre hvilken kode der kører i min applikation.</t>
   </si>
   <si>
-    <t>en anvender kan logge ind i [reg.] med sine AD brugernavn/password.</t>
-  </si>
-  <si>
     <t>labels kan anvendes i [k8s.] til at udpege versioner af images.</t>
   </si>
   <si>
@@ -218,9 +99,6 @@
     <t>Som anvender ønsker jeg kunne begrænse adgangen til services til kendte anvendere, så jeg undgår unfair use eller anonyme anvendelse</t>
   </si>
   <si>
-    <t>[directory.] skal kunne opbevare api-nøgler</t>
-  </si>
-  <si>
     <t>[service.] skal kunne begrænse adgang til services baseret på api-nøgler.</t>
   </si>
   <si>
@@ -230,16 +108,10 @@
     <t>Som anvender ønsker jeg at kunne tildele adgang til services, applikationer og data til bruger i egen og andre organisationer (inden for SIT AD), så vi bedre kan arbejde sammen.</t>
   </si>
   <si>
-    <t>[directory.] skal kunne opbevare rettigheder</t>
-  </si>
-  <si>
     <t>Policy owner</t>
   </si>
   <si>
     <t>Som policy owner, ønsker jeg at oplysninger om services, applikationer og datasæt lever op til krav om registrering, så anvender ikke behøver at registrere oplysninger andre steder.</t>
-  </si>
-  <si>
-    <t>[directory.] skal kunne opbevare alle felter der findes i modellen til beskrivelse af it-systemer.</t>
   </si>
   <si>
     <t>Som anvender ønsker jeg kunne se incidents og events i eget overvågningsssystem, så jeg ikke skal kigge andre steder.</t>
@@ -472,114 +344,6 @@
     <t>2019-09-01</t>
   </si>
   <si>
-    <t>2019-09-02</t>
-  </si>
-  <si>
-    <t>2019-09-03</t>
-  </si>
-  <si>
-    <t>2019-09-04</t>
-  </si>
-  <si>
-    <t>2019-09-05</t>
-  </si>
-  <si>
-    <t>2019-09-06</t>
-  </si>
-  <si>
-    <t>2019-09-07</t>
-  </si>
-  <si>
-    <t>2019-09-08</t>
-  </si>
-  <si>
-    <t>2019-09-09</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2019-09-11</t>
-  </si>
-  <si>
-    <t>2019-09-12</t>
-  </si>
-  <si>
-    <t>2019-09-13</t>
-  </si>
-  <si>
-    <t>2019-09-14</t>
-  </si>
-  <si>
-    <t>2019-09-15</t>
-  </si>
-  <si>
-    <t>2019-09-16</t>
-  </si>
-  <si>
-    <t>2019-09-17</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2019-09-19</t>
-  </si>
-  <si>
-    <t>2019-09-20</t>
-  </si>
-  <si>
-    <t>2019-09-21</t>
-  </si>
-  <si>
-    <t>2019-09-22</t>
-  </si>
-  <si>
-    <t>2019-09-23</t>
-  </si>
-  <si>
-    <t>2019-09-24</t>
-  </si>
-  <si>
-    <t>2019-09-25</t>
-  </si>
-  <si>
-    <t>2019-09-26</t>
-  </si>
-  <si>
-    <t>2019-09-27</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2019-09-29</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>2019-09-31</t>
-  </si>
-  <si>
-    <t>2019-09-32</t>
-  </si>
-  <si>
-    <t>2019-09-33</t>
-  </si>
-  <si>
-    <t>2019-09-34</t>
-  </si>
-  <si>
-    <t>2019-09-35</t>
-  </si>
-  <si>
-    <t>2019-09-36</t>
-  </si>
-  <si>
-    <t>2019-09-37</t>
-  </si>
-  <si>
     <t>Policy owner, ønsker at sikres sig, at applikationer kan flyttes til andre platforme med mindst mulig besvær, så vi sikre et konkurrence baseret marked for services.</t>
   </si>
   <si>
@@ -631,9 +395,6 @@
     <t>Sharing, security and privacy</t>
   </si>
   <si>
-    <t>Policyowner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Som policyowner ønsker jeg at applikationer kan scannes for nye sårbarheder automatisk, så anvender bliver opmærksom på behov for vedligehold. </t>
   </si>
   <si>
@@ -677,13 +438,57 @@
   </si>
   <si>
     <t>Ikke fastlagte user stories og epics herunder….</t>
+  </si>
+  <si>
+    <t>beskriver udbyders og anvenders ansvar</t>
+  </si>
+  <si>
+    <t>stat (overvågning og forbug)</t>
+  </si>
+  <si>
+    <t>en anvender kan logge ind i med sine AD brugernavn/password.</t>
+  </si>
+  <si>
+    <t>skal kunne opbevare api-nøgler</t>
+  </si>
+  <si>
+    <t>skal kunne opbevare rettigheder</t>
+  </si>
+  <si>
+    <t>skal kunne opbevare alle felter der findes i modellen til beskrivelse af it-systemer.</t>
+  </si>
+  <si>
+    <t>beskriver at udbyder starter processen og at coll anvendes i håndteringen af hændelsen.</t>
+  </si>
+  <si>
+    <t>kan sende påmindelse til ansvarlig
+professional services fra middleware kan logge ind.</t>
+  </si>
+  <si>
+    <t>beskriver samarbejdet, hvornår der tages kontakt til prof. Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> viser oversigt over anvenders og platformens services. 
+Beskriver kriterier for "grøn"</t>
+  </si>
+  <si>
+    <t>git (opbevaring af code)</t>
+  </si>
+  <si>
+    <t>reg (opbevaring af images)</t>
+  </si>
+  <si>
+    <t>k8s (selvbetjening)</t>
+  </si>
+  <si>
+    <t>coll (chat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -719,6 +524,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -879,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,12 +761,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -969,9 +776,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -983,6 +787,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2153,51 +1969,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY1048397"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55" style="1" customWidth="1"/>
-    <col min="12" max="27" width="40.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="35.7109375" style="1" customWidth="1"/>
-    <col min="29" max="31" width="20.7109375" style="1" customWidth="1"/>
-    <col min="32" max="259" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="27" width="40.7265625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="35.7265625" style="1" customWidth="1"/>
+    <col min="29" max="31" width="20.7265625" style="1" customWidth="1"/>
+    <col min="32" max="259" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2206,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>3</v>
@@ -2220,44 +2030,44 @@
       <c r="M1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="V1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA1" s="4"/>
       <c r="AB1" s="5"/>
@@ -2265,45 +2075,45 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="33" t="str">
+        <v>13</v>
+      </c>
+      <c r="F2" s="42" t="str">
         <f t="shared" ref="F2:F38" si="0">CONCATENATE(TEXT(B2,"0"),".",TEXT(E2,"0"))</f>
         <v>1.1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
+      <c r="J2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="N2" s="20"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -2319,44 +2129,44 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="33" t="str">
+      <c r="F3" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
+      <c r="K3" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -2371,28 +2181,28 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="str">
+      <c r="F4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="6"/>
@@ -2401,13 +2211,13 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -2423,28 +2233,28 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="17">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="6"/>
@@ -2454,10 +2264,10 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -2473,28 +2283,28 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" s="17">
         <v>5</v>
       </c>
-      <c r="F6" s="33" t="str">
+      <c r="F6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="6"/>
@@ -2521,28 +2331,28 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="17">
         <v>6</v>
       </c>
-      <c r="F7" s="33" t="str">
+      <c r="F7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="6"/>
@@ -2569,52 +2379,52 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="17">
         <v>7</v>
       </c>
-      <c r="F8" s="33" t="str">
+      <c r="F8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="R8" s="6"/>
       <c r="S8" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -2625,44 +2435,44 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="17">
         <v>8</v>
       </c>
-      <c r="F9" s="33" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -2677,46 +2487,46 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E10" s="17">
         <v>9</v>
       </c>
-      <c r="F10" s="33" t="str">
+      <c r="F10" s="42" t="str">
         <f>CONCATENATE(TEXT(B10,"0"),".",TEXT(E10,"0"))</f>
         <v>1.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H10" s="24">
         <v>0</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -2731,43 +2541,43 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B11" s="17">
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="F11" s="33" t="str">
+      <c r="F11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.10</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -2783,43 +2593,43 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E12" s="17">
         <v>11</v>
       </c>
-      <c r="F12" s="33" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1.11</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -2835,35 +2645,35 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="33" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2885,35 +2695,35 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F14" s="33" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.2</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2935,28 +2745,28 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E15" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="33" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H15" s="24">
         <v>0</v>
@@ -2965,7 +2775,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2987,35 +2797,35 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" s="17">
         <v>4</v>
       </c>
-      <c r="F16" s="33" t="str">
+      <c r="F16" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -3037,35 +2847,35 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="17">
         <v>5</v>
       </c>
-      <c r="F17" s="33" t="str">
+      <c r="F17" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -3079,7 +2889,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -3089,28 +2899,28 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E18" s="17">
         <v>6</v>
       </c>
-      <c r="F18" s="33" t="str">
+      <c r="F18" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="H18" s="24">
         <v>0.5</v>
@@ -3119,7 +2929,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="20" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -3132,8 +2942,8 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="34" t="s">
-        <v>60</v>
+      <c r="X18" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -3143,42 +2953,42 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17">
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E19" s="17">
         <v>7</v>
       </c>
-      <c r="F19" s="33" t="str">
+      <c r="F19" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -3199,32 +3009,32 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B20" s="17">
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="17">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="str">
+      <c r="F20" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3249,28 +3059,28 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B21" s="17">
         <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21" s="17">
         <v>9</v>
       </c>
-      <c r="F21" s="33" t="str">
+      <c r="F21" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="6"/>
@@ -3297,28 +3107,28 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B22" s="17">
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E22" s="17">
         <v>10</v>
       </c>
-      <c r="F22" s="33" t="str">
+      <c r="F22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.10</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="6"/>
@@ -3345,28 +3155,28 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E23" s="17">
         <v>11</v>
       </c>
-      <c r="F23" s="33" t="str">
+      <c r="F23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.11</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H23" s="24">
         <v>0</v>
@@ -3375,7 +3185,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="21" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -3397,33 +3207,33 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B24" s="17">
         <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E24" s="17">
         <v>12</v>
       </c>
-      <c r="F24" s="33" t="str">
+      <c r="F24" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3447,28 +3257,28 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B25" s="17">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="17">
         <v>13</v>
       </c>
-      <c r="F25" s="33" t="str">
+      <c r="F25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="6"/>
@@ -3476,7 +3286,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3497,37 +3307,37 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B26" s="17">
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E26" s="17">
         <v>14</v>
       </c>
-      <c r="F26" s="33" t="str">
+      <c r="F26" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H26" s="24">
         <v>0.5</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -3551,28 +3361,28 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B27" s="17">
         <v>3</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E27" s="17">
         <v>1</v>
       </c>
-      <c r="F27" s="33" t="str">
+      <c r="F27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="6"/>
@@ -3599,36 +3409,36 @@
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B28" s="17">
         <v>3</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E28" s="17">
         <v>2</v>
       </c>
-      <c r="F28" s="33" t="str">
+      <c r="F28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H28" s="24">
         <v>0.5</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="35" t="s">
-        <v>138</v>
+      <c r="K28" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3651,34 +3461,34 @@
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
     </row>
-    <row r="29" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B29" s="17">
         <v>3</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E29" s="17">
         <v>3</v>
       </c>
-      <c r="F29" s="33" t="str">
+      <c r="F29" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H29" s="24">
         <v>0.1</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -3691,7 +3501,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3705,44 +3515,44 @@
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
     </row>
-    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E30" s="17">
         <v>4</v>
       </c>
-      <c r="F30" s="33" t="str">
+      <c r="F30" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
       <c r="U30" s="6"/>
@@ -3757,32 +3567,32 @@
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
     </row>
-    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="33" t="str">
+      <c r="F31" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -3807,48 +3617,48 @@
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
     </row>
-    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B32" s="17">
         <v>3</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E32" s="17">
         <v>6</v>
       </c>
-      <c r="F32" s="33" t="str">
+      <c r="F32" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H32" s="24">
         <v>0.1</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="21" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -3863,28 +3673,28 @@
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
     </row>
-    <row r="33" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B33" s="17">
         <v>3</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E33" s="17">
         <v>7</v>
       </c>
-      <c r="F33" s="33" t="str">
+      <c r="F33" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="6"/>
@@ -3893,21 +3703,21 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="O33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -3917,28 +3727,28 @@
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
     </row>
-    <row r="34" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E34" s="17">
         <v>8</v>
       </c>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="6"/>
@@ -3953,7 +3763,7 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -3967,28 +3777,28 @@
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
     </row>
-    <row r="35" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B35" s="17">
         <v>3</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E35" s="17">
         <v>9</v>
       </c>
-      <c r="F35" s="33" t="str">
+      <c r="F35" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="6"/>
@@ -4003,7 +3813,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -4017,28 +3827,28 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
     </row>
-    <row r="36" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B36" s="17">
         <v>3</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E36" s="17">
         <v>10</v>
       </c>
-      <c r="F36" s="33" t="str">
+      <c r="F36" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.10</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="6"/>
@@ -4053,7 +3863,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -4067,32 +3877,32 @@
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
     </row>
-    <row r="37" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E37" s="17">
         <v>11</v>
       </c>
-      <c r="F37" s="33" t="str">
+      <c r="F37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.11</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="23" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -4117,28 +3927,28 @@
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E38" s="17">
         <v>12</v>
       </c>
-      <c r="F38" s="33" t="str">
+      <c r="F38" s="42" t="str">
         <f t="shared" si="0"/>
         <v>3.12</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="6"/>
@@ -4165,282 +3975,282 @@
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="1:259" s="45" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="44"/>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="44"/>
-      <c r="AZ39" s="44"/>
-      <c r="BA39" s="44"/>
-      <c r="BB39" s="44"/>
-      <c r="BC39" s="44"/>
-      <c r="BD39" s="44"/>
-      <c r="BE39" s="44"/>
-      <c r="BF39" s="44"/>
-      <c r="BG39" s="44"/>
-      <c r="BH39" s="44"/>
-      <c r="BI39" s="44"/>
-      <c r="BJ39" s="44"/>
-      <c r="BK39" s="44"/>
-      <c r="BL39" s="44"/>
-      <c r="BM39" s="44"/>
-      <c r="BN39" s="44"/>
-      <c r="BO39" s="44"/>
-      <c r="BP39" s="44"/>
-      <c r="BQ39" s="44"/>
-      <c r="BR39" s="44"/>
-      <c r="BS39" s="44"/>
-      <c r="BT39" s="44"/>
-      <c r="BU39" s="44"/>
-      <c r="BV39" s="44"/>
-      <c r="BW39" s="44"/>
-      <c r="BX39" s="44"/>
-      <c r="BY39" s="44"/>
-      <c r="BZ39" s="44"/>
-      <c r="CA39" s="44"/>
-      <c r="CB39" s="44"/>
-      <c r="CC39" s="44"/>
-      <c r="CD39" s="44"/>
-      <c r="CE39" s="44"/>
-      <c r="CF39" s="44"/>
-      <c r="CG39" s="44"/>
-      <c r="CH39" s="44"/>
-      <c r="CI39" s="44"/>
-      <c r="CJ39" s="44"/>
-      <c r="CK39" s="44"/>
-      <c r="CL39" s="44"/>
-      <c r="CM39" s="44"/>
-      <c r="CN39" s="44"/>
-      <c r="CO39" s="44"/>
-      <c r="CP39" s="44"/>
-      <c r="CQ39" s="44"/>
-      <c r="CR39" s="44"/>
-      <c r="CS39" s="44"/>
-      <c r="CT39" s="44"/>
-      <c r="CU39" s="44"/>
-      <c r="CV39" s="44"/>
-      <c r="CW39" s="44"/>
-      <c r="CX39" s="44"/>
-      <c r="CY39" s="44"/>
-      <c r="CZ39" s="44"/>
-      <c r="DA39" s="44"/>
-      <c r="DB39" s="44"/>
-      <c r="DC39" s="44"/>
-      <c r="DD39" s="44"/>
-      <c r="DE39" s="44"/>
-      <c r="DF39" s="44"/>
-      <c r="DG39" s="44"/>
-      <c r="DH39" s="44"/>
-      <c r="DI39" s="44"/>
-      <c r="DJ39" s="44"/>
-      <c r="DK39" s="44"/>
-      <c r="DL39" s="44"/>
-      <c r="DM39" s="44"/>
-      <c r="DN39" s="44"/>
-      <c r="DO39" s="44"/>
-      <c r="DP39" s="44"/>
-      <c r="DQ39" s="44"/>
-      <c r="DR39" s="44"/>
-      <c r="DS39" s="44"/>
-      <c r="DT39" s="44"/>
-      <c r="DU39" s="44"/>
-      <c r="DV39" s="44"/>
-      <c r="DW39" s="44"/>
-      <c r="DX39" s="44"/>
-      <c r="DY39" s="44"/>
-      <c r="DZ39" s="44"/>
-      <c r="EA39" s="44"/>
-      <c r="EB39" s="44"/>
-      <c r="EC39" s="44"/>
-      <c r="ED39" s="44"/>
-      <c r="EE39" s="44"/>
-      <c r="EF39" s="44"/>
-      <c r="EG39" s="44"/>
-      <c r="EH39" s="44"/>
-      <c r="EI39" s="44"/>
-      <c r="EJ39" s="44"/>
-      <c r="EK39" s="44"/>
-      <c r="EL39" s="44"/>
-      <c r="EM39" s="44"/>
-      <c r="EN39" s="44"/>
-      <c r="EO39" s="44"/>
-      <c r="EP39" s="44"/>
-      <c r="EQ39" s="44"/>
-      <c r="ER39" s="44"/>
-      <c r="ES39" s="44"/>
-      <c r="ET39" s="44"/>
-      <c r="EU39" s="44"/>
-      <c r="EV39" s="44"/>
-      <c r="EW39" s="44"/>
-      <c r="EX39" s="44"/>
-      <c r="EY39" s="44"/>
-      <c r="EZ39" s="44"/>
-      <c r="FA39" s="44"/>
-      <c r="FB39" s="44"/>
-      <c r="FC39" s="44"/>
-      <c r="FD39" s="44"/>
-      <c r="FE39" s="44"/>
-      <c r="FF39" s="44"/>
-      <c r="FG39" s="44"/>
-      <c r="FH39" s="44"/>
-      <c r="FI39" s="44"/>
-      <c r="FJ39" s="44"/>
-      <c r="FK39" s="44"/>
-      <c r="FL39" s="44"/>
-      <c r="FM39" s="44"/>
-      <c r="FN39" s="44"/>
-      <c r="FO39" s="44"/>
-      <c r="FP39" s="44"/>
-      <c r="FQ39" s="44"/>
-      <c r="FR39" s="44"/>
-      <c r="FS39" s="44"/>
-      <c r="FT39" s="44"/>
-      <c r="FU39" s="44"/>
-      <c r="FV39" s="44"/>
-      <c r="FW39" s="44"/>
-      <c r="FX39" s="44"/>
-      <c r="FY39" s="44"/>
-      <c r="FZ39" s="44"/>
-      <c r="GA39" s="44"/>
-      <c r="GB39" s="44"/>
-      <c r="GC39" s="44"/>
-      <c r="GD39" s="44"/>
-      <c r="GE39" s="44"/>
-      <c r="GF39" s="44"/>
-      <c r="GG39" s="44"/>
-      <c r="GH39" s="44"/>
-      <c r="GI39" s="44"/>
-      <c r="GJ39" s="44"/>
-      <c r="GK39" s="44"/>
-      <c r="GL39" s="44"/>
-      <c r="GM39" s="44"/>
-      <c r="GN39" s="44"/>
-      <c r="GO39" s="44"/>
-      <c r="GP39" s="44"/>
-      <c r="GQ39" s="44"/>
-      <c r="GR39" s="44"/>
-      <c r="GS39" s="44"/>
-      <c r="GT39" s="44"/>
-      <c r="GU39" s="44"/>
-      <c r="GV39" s="44"/>
-      <c r="GW39" s="44"/>
-      <c r="GX39" s="44"/>
-      <c r="GY39" s="44"/>
-      <c r="GZ39" s="44"/>
-      <c r="HA39" s="44"/>
-      <c r="HB39" s="44"/>
-      <c r="HC39" s="44"/>
-      <c r="HD39" s="44"/>
-      <c r="HE39" s="44"/>
-      <c r="HF39" s="44"/>
-      <c r="HG39" s="44"/>
-      <c r="HH39" s="44"/>
-      <c r="HI39" s="44"/>
-      <c r="HJ39" s="44"/>
-      <c r="HK39" s="44"/>
-      <c r="HL39" s="44"/>
-      <c r="HM39" s="44"/>
-      <c r="HN39" s="44"/>
-      <c r="HO39" s="44"/>
-      <c r="HP39" s="44"/>
-      <c r="HQ39" s="44"/>
-      <c r="HR39" s="44"/>
-      <c r="HS39" s="44"/>
-      <c r="HT39" s="44"/>
-      <c r="HU39" s="44"/>
-      <c r="HV39" s="44"/>
-      <c r="HW39" s="44"/>
-      <c r="HX39" s="44"/>
-      <c r="HY39" s="44"/>
-      <c r="HZ39" s="44"/>
-      <c r="IA39" s="44"/>
-      <c r="IB39" s="44"/>
-      <c r="IC39" s="44"/>
-      <c r="ID39" s="44"/>
-      <c r="IE39" s="44"/>
-      <c r="IF39" s="44"/>
-      <c r="IG39" s="44"/>
-      <c r="IH39" s="44"/>
-      <c r="II39" s="44"/>
-      <c r="IJ39" s="44"/>
-      <c r="IK39" s="44"/>
-      <c r="IL39" s="44"/>
-      <c r="IM39" s="44"/>
-      <c r="IN39" s="44"/>
-      <c r="IO39" s="44"/>
-      <c r="IP39" s="44"/>
-      <c r="IQ39" s="44"/>
-      <c r="IR39" s="44"/>
-      <c r="IS39" s="44"/>
-      <c r="IT39" s="44"/>
-      <c r="IU39" s="44"/>
-      <c r="IV39" s="44"/>
-      <c r="IW39" s="44"/>
-      <c r="IX39" s="44"/>
-      <c r="IY39" s="44"/>
-    </row>
-    <row r="40" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:259" s="40" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
+      <c r="BA39" s="39"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
+      <c r="BD39" s="39"/>
+      <c r="BE39" s="39"/>
+      <c r="BF39" s="39"/>
+      <c r="BG39" s="39"/>
+      <c r="BH39" s="39"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="39"/>
+      <c r="BK39" s="39"/>
+      <c r="BL39" s="39"/>
+      <c r="BM39" s="39"/>
+      <c r="BN39" s="39"/>
+      <c r="BO39" s="39"/>
+      <c r="BP39" s="39"/>
+      <c r="BQ39" s="39"/>
+      <c r="BR39" s="39"/>
+      <c r="BS39" s="39"/>
+      <c r="BT39" s="39"/>
+      <c r="BU39" s="39"/>
+      <c r="BV39" s="39"/>
+      <c r="BW39" s="39"/>
+      <c r="BX39" s="39"/>
+      <c r="BY39" s="39"/>
+      <c r="BZ39" s="39"/>
+      <c r="CA39" s="39"/>
+      <c r="CB39" s="39"/>
+      <c r="CC39" s="39"/>
+      <c r="CD39" s="39"/>
+      <c r="CE39" s="39"/>
+      <c r="CF39" s="39"/>
+      <c r="CG39" s="39"/>
+      <c r="CH39" s="39"/>
+      <c r="CI39" s="39"/>
+      <c r="CJ39" s="39"/>
+      <c r="CK39" s="39"/>
+      <c r="CL39" s="39"/>
+      <c r="CM39" s="39"/>
+      <c r="CN39" s="39"/>
+      <c r="CO39" s="39"/>
+      <c r="CP39" s="39"/>
+      <c r="CQ39" s="39"/>
+      <c r="CR39" s="39"/>
+      <c r="CS39" s="39"/>
+      <c r="CT39" s="39"/>
+      <c r="CU39" s="39"/>
+      <c r="CV39" s="39"/>
+      <c r="CW39" s="39"/>
+      <c r="CX39" s="39"/>
+      <c r="CY39" s="39"/>
+      <c r="CZ39" s="39"/>
+      <c r="DA39" s="39"/>
+      <c r="DB39" s="39"/>
+      <c r="DC39" s="39"/>
+      <c r="DD39" s="39"/>
+      <c r="DE39" s="39"/>
+      <c r="DF39" s="39"/>
+      <c r="DG39" s="39"/>
+      <c r="DH39" s="39"/>
+      <c r="DI39" s="39"/>
+      <c r="DJ39" s="39"/>
+      <c r="DK39" s="39"/>
+      <c r="DL39" s="39"/>
+      <c r="DM39" s="39"/>
+      <c r="DN39" s="39"/>
+      <c r="DO39" s="39"/>
+      <c r="DP39" s="39"/>
+      <c r="DQ39" s="39"/>
+      <c r="DR39" s="39"/>
+      <c r="DS39" s="39"/>
+      <c r="DT39" s="39"/>
+      <c r="DU39" s="39"/>
+      <c r="DV39" s="39"/>
+      <c r="DW39" s="39"/>
+      <c r="DX39" s="39"/>
+      <c r="DY39" s="39"/>
+      <c r="DZ39" s="39"/>
+      <c r="EA39" s="39"/>
+      <c r="EB39" s="39"/>
+      <c r="EC39" s="39"/>
+      <c r="ED39" s="39"/>
+      <c r="EE39" s="39"/>
+      <c r="EF39" s="39"/>
+      <c r="EG39" s="39"/>
+      <c r="EH39" s="39"/>
+      <c r="EI39" s="39"/>
+      <c r="EJ39" s="39"/>
+      <c r="EK39" s="39"/>
+      <c r="EL39" s="39"/>
+      <c r="EM39" s="39"/>
+      <c r="EN39" s="39"/>
+      <c r="EO39" s="39"/>
+      <c r="EP39" s="39"/>
+      <c r="EQ39" s="39"/>
+      <c r="ER39" s="39"/>
+      <c r="ES39" s="39"/>
+      <c r="ET39" s="39"/>
+      <c r="EU39" s="39"/>
+      <c r="EV39" s="39"/>
+      <c r="EW39" s="39"/>
+      <c r="EX39" s="39"/>
+      <c r="EY39" s="39"/>
+      <c r="EZ39" s="39"/>
+      <c r="FA39" s="39"/>
+      <c r="FB39" s="39"/>
+      <c r="FC39" s="39"/>
+      <c r="FD39" s="39"/>
+      <c r="FE39" s="39"/>
+      <c r="FF39" s="39"/>
+      <c r="FG39" s="39"/>
+      <c r="FH39" s="39"/>
+      <c r="FI39" s="39"/>
+      <c r="FJ39" s="39"/>
+      <c r="FK39" s="39"/>
+      <c r="FL39" s="39"/>
+      <c r="FM39" s="39"/>
+      <c r="FN39" s="39"/>
+      <c r="FO39" s="39"/>
+      <c r="FP39" s="39"/>
+      <c r="FQ39" s="39"/>
+      <c r="FR39" s="39"/>
+      <c r="FS39" s="39"/>
+      <c r="FT39" s="39"/>
+      <c r="FU39" s="39"/>
+      <c r="FV39" s="39"/>
+      <c r="FW39" s="39"/>
+      <c r="FX39" s="39"/>
+      <c r="FY39" s="39"/>
+      <c r="FZ39" s="39"/>
+      <c r="GA39" s="39"/>
+      <c r="GB39" s="39"/>
+      <c r="GC39" s="39"/>
+      <c r="GD39" s="39"/>
+      <c r="GE39" s="39"/>
+      <c r="GF39" s="39"/>
+      <c r="GG39" s="39"/>
+      <c r="GH39" s="39"/>
+      <c r="GI39" s="39"/>
+      <c r="GJ39" s="39"/>
+      <c r="GK39" s="39"/>
+      <c r="GL39" s="39"/>
+      <c r="GM39" s="39"/>
+      <c r="GN39" s="39"/>
+      <c r="GO39" s="39"/>
+      <c r="GP39" s="39"/>
+      <c r="GQ39" s="39"/>
+      <c r="GR39" s="39"/>
+      <c r="GS39" s="39"/>
+      <c r="GT39" s="39"/>
+      <c r="GU39" s="39"/>
+      <c r="GV39" s="39"/>
+      <c r="GW39" s="39"/>
+      <c r="GX39" s="39"/>
+      <c r="GY39" s="39"/>
+      <c r="GZ39" s="39"/>
+      <c r="HA39" s="39"/>
+      <c r="HB39" s="39"/>
+      <c r="HC39" s="39"/>
+      <c r="HD39" s="39"/>
+      <c r="HE39" s="39"/>
+      <c r="HF39" s="39"/>
+      <c r="HG39" s="39"/>
+      <c r="HH39" s="39"/>
+      <c r="HI39" s="39"/>
+      <c r="HJ39" s="39"/>
+      <c r="HK39" s="39"/>
+      <c r="HL39" s="39"/>
+      <c r="HM39" s="39"/>
+      <c r="HN39" s="39"/>
+      <c r="HO39" s="39"/>
+      <c r="HP39" s="39"/>
+      <c r="HQ39" s="39"/>
+      <c r="HR39" s="39"/>
+      <c r="HS39" s="39"/>
+      <c r="HT39" s="39"/>
+      <c r="HU39" s="39"/>
+      <c r="HV39" s="39"/>
+      <c r="HW39" s="39"/>
+      <c r="HX39" s="39"/>
+      <c r="HY39" s="39"/>
+      <c r="HZ39" s="39"/>
+      <c r="IA39" s="39"/>
+      <c r="IB39" s="39"/>
+      <c r="IC39" s="39"/>
+      <c r="ID39" s="39"/>
+      <c r="IE39" s="39"/>
+      <c r="IF39" s="39"/>
+      <c r="IG39" s="39"/>
+      <c r="IH39" s="39"/>
+      <c r="II39" s="39"/>
+      <c r="IJ39" s="39"/>
+      <c r="IK39" s="39"/>
+      <c r="IL39" s="39"/>
+      <c r="IM39" s="39"/>
+      <c r="IN39" s="39"/>
+      <c r="IO39" s="39"/>
+      <c r="IP39" s="39"/>
+      <c r="IQ39" s="39"/>
+      <c r="IR39" s="39"/>
+      <c r="IS39" s="39"/>
+      <c r="IT39" s="39"/>
+      <c r="IU39" s="39"/>
+      <c r="IV39" s="39"/>
+      <c r="IW39" s="39"/>
+      <c r="IX39" s="39"/>
+      <c r="IY39" s="39"/>
+    </row>
+    <row r="40" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="14" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="30"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="14" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="10"/>
@@ -4467,19 +4277,19 @@
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
-    <row r="41" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="31"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="14" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="9"/>
@@ -4506,19 +4316,19 @@
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>151</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="31"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="9"/>
@@ -4545,19 +4355,19 @@
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>151</v>
+        <v>100</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="31"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="14" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="9"/>
@@ -4584,19 +4394,19 @@
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E44" s="16"/>
-      <c r="F44" s="31"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="14" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="H44" s="27"/>
       <c r="I44" s="9"/>
@@ -4623,19 +4433,19 @@
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E45" s="16"/>
-      <c r="F45" s="31"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="14" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="9"/>
@@ -4662,19 +4472,19 @@
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E46" s="16"/>
-      <c r="F46" s="31"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="14" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="9"/>
@@ -4701,19 +4511,19 @@
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="31"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="14" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="9"/>
@@ -4740,19 +4550,19 @@
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="1:259" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:259" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E48" s="16"/>
-      <c r="F48" s="31"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="14" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="9"/>
@@ -4779,19 +4589,19 @@
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E49" s="16"/>
-      <c r="F49" s="31"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="14" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="9"/>
@@ -4818,19 +4628,19 @@
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>151</v>
+        <v>110</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E50" s="16"/>
-      <c r="F50" s="31"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="14" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="9"/>
@@ -4857,19 +4667,19 @@
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>151</v>
+        <v>110</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E51" s="16"/>
-      <c r="F51" s="31"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="14" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="H51" s="27"/>
       <c r="I51" s="9"/>
@@ -4896,19 +4706,19 @@
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>151</v>
+        <v>110</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="31"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="14" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="H52" s="27"/>
       <c r="I52" s="9"/>
@@ -4935,19 +4745,19 @@
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>151</v>
+        <v>110</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="31"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="14" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="9"/>
@@ -4974,13 +4784,13 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="31"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="16"/>
       <c r="H54" s="27"/>
       <c r="I54" s="9"/>
@@ -5007,13 +4817,13 @@
       <c r="AD54" s="9"/>
       <c r="AE54" s="9"/>
     </row>
-    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="31"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="16"/>
       <c r="H55" s="27"/>
       <c r="I55" s="9"/>
@@ -5040,13 +4850,13 @@
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
     </row>
-    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="31"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="16"/>
       <c r="H56" s="27"/>
       <c r="I56" s="9"/>
@@ -5073,13 +4883,13 @@
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
     </row>
-    <row r="57" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="31"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="16"/>
       <c r="H57" s="27"/>
       <c r="I57" s="9"/>
@@ -5106,13 +4916,13 @@
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
     </row>
-    <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="31"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="16"/>
       <c r="H58" s="27"/>
       <c r="I58" s="9"/>
@@ -5139,13 +4949,13 @@
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
     </row>
-    <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="16"/>
       <c r="H59" s="27"/>
       <c r="I59" s="9"/>
@@ -5172,13 +4982,13 @@
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
     </row>
-    <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="31"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="16"/>
       <c r="H60" s="27"/>
       <c r="I60" s="9"/>
@@ -5205,13 +5015,13 @@
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
     </row>
-    <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="31"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="16"/>
       <c r="H61" s="27"/>
       <c r="I61" s="9"/>
@@ -5238,13 +5048,13 @@
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
     </row>
-    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="31"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="16"/>
       <c r="H62" s="27"/>
       <c r="I62" s="9"/>
@@ -5271,13 +5081,13 @@
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
     </row>
-    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="31"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="16"/>
       <c r="H63" s="27"/>
       <c r="I63" s="9"/>
@@ -5304,13 +5114,13 @@
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
     </row>
-    <row r="64" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="31"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="16"/>
       <c r="H64" s="27"/>
       <c r="I64" s="9"/>
@@ -5337,13 +5147,13 @@
       <c r="AD64" s="9"/>
       <c r="AE64" s="9"/>
     </row>
-    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="31"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="16"/>
       <c r="H65" s="27"/>
       <c r="I65" s="9"/>
@@ -5370,13 +5180,13 @@
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
     </row>
-    <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="31"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="16"/>
       <c r="H66" s="28"/>
       <c r="I66" s="9"/>
@@ -5403,13 +5213,13 @@
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
     </row>
-    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
-      <c r="F67" s="31"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="16"/>
       <c r="H67" s="28"/>
       <c r="I67" s="9"/>
@@ -5436,13 +5246,13 @@
       <c r="AD67" s="9"/>
       <c r="AE67" s="9"/>
     </row>
-    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="31"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="16"/>
       <c r="H68" s="28"/>
       <c r="I68" s="9"/>
@@ -5469,13 +5279,13 @@
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
     </row>
-    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="31"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="16"/>
       <c r="H69" s="28"/>
       <c r="I69" s="9"/>
@@ -5502,13 +5312,13 @@
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
     </row>
-    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="31"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="16"/>
       <c r="H70" s="28"/>
       <c r="I70" s="9"/>
@@ -5535,13 +5345,13 @@
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
     </row>
-    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="31"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="16"/>
       <c r="H71" s="28"/>
       <c r="I71" s="9"/>
@@ -5568,13 +5378,13 @@
       <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
     </row>
-    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="31"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="16"/>
       <c r="H72" s="28"/>
       <c r="I72" s="9"/>
@@ -5601,13 +5411,13 @@
       <c r="AD72" s="9"/>
       <c r="AE72" s="9"/>
     </row>
-    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="31"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="16"/>
       <c r="H73" s="28"/>
       <c r="I73" s="9"/>
@@ -5634,13 +5444,13 @@
       <c r="AD73" s="9"/>
       <c r="AE73" s="9"/>
     </row>
-    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="31"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="16"/>
       <c r="H74" s="28"/>
       <c r="I74" s="9"/>
@@ -5667,13 +5477,13 @@
       <c r="AD74" s="9"/>
       <c r="AE74" s="9"/>
     </row>
-    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="31"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="16"/>
       <c r="H75" s="28"/>
       <c r="I75" s="9"/>
@@ -5700,13 +5510,13 @@
       <c r="AD75" s="9"/>
       <c r="AE75" s="9"/>
     </row>
-    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="31"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="16"/>
       <c r="H76" s="28"/>
       <c r="I76" s="9"/>
@@ -5733,13 +5543,13 @@
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
     </row>
-    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="31"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="16"/>
       <c r="H77" s="28"/>
       <c r="I77" s="9"/>
@@ -5766,13 +5576,13 @@
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
     </row>
-    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="31"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="16"/>
       <c r="H78" s="28"/>
       <c r="I78" s="9"/>
@@ -5799,13 +5609,13 @@
       <c r="AD78" s="9"/>
       <c r="AE78" s="9"/>
     </row>
-    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="31"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="16"/>
       <c r="H79" s="28"/>
       <c r="I79" s="9"/>
@@ -5832,13 +5642,13 @@
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
     </row>
-    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="31"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="16"/>
       <c r="H80" s="28"/>
       <c r="I80" s="9"/>
@@ -5865,13 +5675,13 @@
       <c r="AD80" s="9"/>
       <c r="AE80" s="9"/>
     </row>
-    <row r="81" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="31"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="16"/>
       <c r="H81" s="28"/>
       <c r="I81" s="9"/>
@@ -5898,13 +5708,13 @@
       <c r="AD81" s="9"/>
       <c r="AE81" s="9"/>
     </row>
-    <row r="82" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="31"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="16"/>
       <c r="H82" s="28"/>
       <c r="I82" s="9"/>
@@ -5931,13 +5741,13 @@
       <c r="AD82" s="9"/>
       <c r="AE82" s="9"/>
     </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="31"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="16"/>
       <c r="H83" s="28"/>
       <c r="I83" s="9"/>
@@ -5964,13 +5774,13 @@
       <c r="AD83" s="9"/>
       <c r="AE83" s="9"/>
     </row>
-    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="31"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="16"/>
       <c r="H84" s="28"/>
       <c r="I84" s="9"/>
@@ -5997,13 +5807,13 @@
       <c r="AD84" s="9"/>
       <c r="AE84" s="9"/>
     </row>
-    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="31"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="16"/>
       <c r="H85" s="28"/>
       <c r="I85" s="9"/>
@@ -6030,13 +5840,13 @@
       <c r="AD85" s="9"/>
       <c r="AE85" s="9"/>
     </row>
-    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="31"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="16"/>
       <c r="H86" s="28"/>
       <c r="I86" s="9"/>
@@ -6063,13 +5873,13 @@
       <c r="AD86" s="9"/>
       <c r="AE86" s="9"/>
     </row>
-    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="31"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="16"/>
       <c r="H87" s="28"/>
       <c r="I87" s="9"/>
@@ -6096,7 +5906,7 @@
       <c r="AD87" s="9"/>
       <c r="AE87" s="9"/>
     </row>
-    <row r="1048397" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048397" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:IY53"/>
   <conditionalFormatting sqref="H2:I52 H54:I1048409">

--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IV$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IV$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
   <si>
     <t>Aktør</t>
   </si>
@@ -129,36 +129,12 @@
     <t>[api] anvender snitflader der kan implementeres på andre platforme.</t>
   </si>
   <si>
-    <t>Som udbyder ønsker jeg kendskab til anvenderes behov for kapicitet, så jeg kan planlægger provisioning af hardware, netværk og fysiske lokalitet. (langsigtet planlægning) [servicemodel] [brugergruppe] [roadmap]</t>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg at platformens ressource udvides i takt med mine behov. ??[servicemodel]</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at skabe sikkerhed om at udbyder levere det aftalte service niveau.[brugergruppe] [servicemodel] [servicerapport]</t>
-  </si>
-  <si>
-    <t>Som udbyder ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at vise at udbyder har mødt det aftalte service niveau [brugergruppe] [servicemodel] [servicerapport]</t>
-  </si>
-  <si>
-    <t>Som  policy owner, ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Dette ønskes for at kunne skabe overblik over at servicens oppe tid er så høj som muligt, og til at vurdere hvor vidt det aftalt niveau bliver mødt.[brugergruppe] [servicemodel] [servicerapport]</t>
-  </si>
-  <si>
-    <t>Som udbyder ønsker jeg at tilbyde platformen på en fælles servicemodel til alle anvendere, så jeg nemmere kan styre hele kundeforholdet. [servicemodel]</t>
-  </si>
-  <si>
-    <t>Som anvender ønsker jeg en tydelig beskrivelse af hvilke services og serviceniveauer jeg kan forvente, så jeg bedre kan indgå aftaler med eksterne leverandører og/eller ansætte kompetancer. [servicemodel] [api] [roadmap]</t>
-  </si>
-  <si>
-    <t>SIT/DIGST</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy owner </t>
   </si>
   <si>
-    <t>Som policyowner? ønsker jeg at servicemodellen udbredes til alle eksisterende, med henblik på hurtig ibrugtaging. [kundeaftaler]</t>
-  </si>
-  <si>
     <t>Platform Service Operation</t>
   </si>
   <si>
@@ -217,9 +193,6 @@
   </si>
   <si>
     <t>At DIGST har beslutningsret på roadmap udviklingen. At der udføres CAMMS vurderinger før ibrugtagning af nye snitflader.</t>
-  </si>
-  <si>
-    <t>At der aftales formater for afrapportering af SLA</t>
   </si>
   <si>
     <t xml:space="preserve">Tydelig placering af ansvar og identifikation af service der understøtter selvbetjening. </t>
@@ -446,19 +419,73 @@
     <t xml:space="preserve">Som policyowner? ønsker jeg en prismodel der er simpel og har incitamenter for anvender til at begrænse anvendelse af ressourcer og starter lavt (med  henblik på udbredelse) </t>
   </si>
   <si>
-    <t xml:space="preserve">At servicemodellen tilbydes alle eksisterende SIT kunder.  Prismodellen skal have lav entry.  </t>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg at udbyder bidrager med viden om platformen i forbindelse med problemer med mine applikationer. Og at de/vi har nem adgang til professional service i relation til middleware - så jeg hurtigst muligt kan få mine services til at kører igen.</t>
   </si>
   <si>
     <t xml:space="preserve">Beskrivelse af adgang til platformsupport og professional service i hændelseshåndtering. </t>
   </si>
   <si>
-    <t xml:space="preserve">Som anvender ønsker at anvende en NoSQL datastore, så jeg effektivt kan gemme og hente store mængder tabel og dokumentbaseret data i mine applikationer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Som policy owner ønsker jeg en en token service, så det er nemt for anvender at fødereret brugerstyring som beskrevet i FDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som anvender ønsker jeg at anvende en NoSQL datastore, så jeg effektivt kan gemme og hente store mængder tabel og dokumentbaseret data i mine applikationer. </t>
+  </si>
+  <si>
+    <t>Kan anvende oplysninger fra SIT AD</t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at vise at udbyder har mødt det aftalte service niveau</t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg kendskab til anvenderes behov for kapicitet, så jeg kan planlægger provisioning af hardware, netværk og fysiske lokalitet.</t>
+  </si>
+  <si>
+    <t>Som  policy owner, ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Dette ønskes for at kunne skabe overblik over at servicens oppe tid er så høj som muligt, og til at vurdere hvor vidt det aftalt niveau bliver mødt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadmappet indeholder estimater over forbrug i form af ressourcer. </t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at skabe sikkerhed om at udbyder levere det aftalte service niveau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">månedelige rapporter for platform og kundens applikationer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aftale KPI'er for platformen og summen af anvendere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aftale KPI'er for kunder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forklaring af SLA og at der ikke er sanktioner. </t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg at tilbyde platformen på en fælles servicemodel til alle anvendere, så jeg nemmere kan styre hele kundeforholdet.</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg en tydelig beskrivelse af hvilke services og serviceniveauer jeg kan forvente, så jeg bedre kan indgå aftaler med eksterne leverandører og/eller ansætte kompetancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tydelige henvisninger til specifikationer og versione, og planer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicemodel skal kunne anvendes som bilag i udbud. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policy owner ønsker jeg IKKE en særskilt proces for bestilling af ressourcer, da det vil være en barriere for i brugtagning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity planing i egen proces der ikke har med idriftsættelse at gøre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At servicemodellen er ens for alle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policyowner? ønsker jeg at servicemodellen udbredes til alle eksisterende, med henblik på hurtig ibrugtaging. </t>
+  </si>
+  <si>
+    <t>Tilføjelse til eksisterende kundeaftaler, med intro til direktioner</t>
   </si>
 </sst>
 </file>
@@ -681,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +815,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,11 +1987,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV1048364"/>
+  <dimension ref="A1:IV1048365"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1985,22 +2015,22 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2009,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -2024,34 +2054,34 @@
         <v>6</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="41"/>
@@ -2059,12 +2089,12 @@
       <c r="AA1" s="41"/>
       <c r="AB1" s="41"/>
     </row>
-    <row r="2" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
@@ -2072,39 +2102,35 @@
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
+      <c r="E2" s="11">
+        <v>3</v>
       </c>
       <c r="F2" s="31" t="str">
-        <f t="shared" ref="F2:F40" si="0">CONCATENATE(TEXT(B2,"0"),".",TEXT(E2,"0"))</f>
-        <v>1.1</v>
+        <f>CONCATENATE(TEXT(B2,"0"),".",TEXT(E2,"0"))</f>
+        <v>1.3</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="40"/>
       <c r="Y2" s="41"/>
@@ -2112,9 +2138,9 @@
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>
     </row>
-    <row r="3" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2126,36 +2152,32 @@
         <v>9</v>
       </c>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
+        <f>CONCATENATE(TEXT(B3,"0"),".",TEXT(E3,"0"))</f>
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="40"/>
       <c r="Y3" s="41"/>
@@ -2165,7 +2187,7 @@
     </row>
     <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -2177,14 +2199,14 @@
         <v>9</v>
       </c>
       <c r="E4" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <f>CONCATENATE(TEXT(B4,"0"),".",TEXT(E4,"0"))</f>
+        <v>1.5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="3"/>
@@ -2193,12 +2215,10 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="O4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2214,7 +2234,7 @@
     </row>
     <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -2226,14 +2246,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f>CONCATENATE(TEXT(B5,"0"),".",TEXT(E5,"0"))</f>
+        <v>1.6</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="3"/>
@@ -2242,15 +2262,21 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="V5" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="40"/>
@@ -2259,12 +2285,12 @@
       <c r="AA5" s="41"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -2272,33 +2298,39 @@
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11">
-        <v>5</v>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" ref="F6:F41" si="0">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
+        <v>1.1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="40"/>
       <c r="Y6" s="41"/>
@@ -2306,9 +2338,9 @@
       <c r="AA6" s="41"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2320,38 +2352,36 @@
         <v>9</v>
       </c>
       <c r="E7" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="R7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="41"/>
@@ -2359,9 +2389,9 @@
       <c r="AA7" s="41"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2373,37 +2403,33 @@
         <v>9</v>
       </c>
       <c r="E8" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
+        <f>CONCATENATE(TEXT(B8,"0"),".",TEXT(E8,"0"))</f>
+        <v>1.15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="40"/>
@@ -2414,7 +2440,7 @@
     </row>
     <row r="9" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -2426,18 +2452,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2445,19 +2471,17 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>123</v>
+      <c r="S9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
-        <v>122</v>
+      <c r="U9" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2469,7 +2493,7 @@
     </row>
     <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -2477,44 +2501,54 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>CONCATENATE(TEXT(B10,"0"),".",TEXT(E10,"0"))</f>
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>144</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="X10" s="40"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+    </row>
+    <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -2522,18 +2556,18 @@
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="E11" s="11">
-        <v>10</v>
-      </c>
       <c r="F11" s="31" t="str">
-        <f>CONCATENATE(TEXT(B11,"0"),".",TEXT(E11,"0"))</f>
-        <v>1.10</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>53</v>
+        <f t="shared" ref="F11:F16" si="1">CONCATENATE(TEXT(B11,"0"),".",TEXT(E11,"0"))</f>
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="3"/>
@@ -2546,12 +2580,12 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="10"/>
@@ -2561,7 +2595,7 @@
     </row>
     <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -2573,14 +2607,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>CONCATENATE(TEXT(B12,"0"),".",TEXT(E12,"0"))</f>
-        <v>1.11</v>
+        <f t="shared" si="1"/>
+        <v>1.10</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="3"/>
@@ -2597,7 +2631,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="44"/>
@@ -2608,7 +2642,7 @@
     </row>
     <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -2620,14 +2654,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>CONCATENATE(TEXT(B13,"0"),".",TEXT(E13,"0"))</f>
-        <v>1.12</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>143</v>
+        <f t="shared" si="1"/>
+        <v>1.11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="3"/>
@@ -2644,7 +2678,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="44"/>
@@ -2655,7 +2689,7 @@
     </row>
     <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -2667,19 +2701,17 @@
         <v>9</v>
       </c>
       <c r="E14" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>CONCATENATE(TEXT(B14,"0"),".",TEXT(E14,"0"))</f>
-        <v>1.13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>1.12</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2692,7 +2724,9 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="10"/>
@@ -2702,7 +2736,7 @@
     </row>
     <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -2711,32 +2745,28 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E15" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>CONCATENATE(TEXT(B15,"0"),".",TEXT(E15,"0"))</f>
-        <v>1.14</v>
+        <f t="shared" si="1"/>
+        <v>1.13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2745,15 +2775,15 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -2762,32 +2792,34 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E16" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.15</v>
+        <f t="shared" si="1"/>
+        <v>1.14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
       <c r="I16" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2802,7 +2834,7 @@
     </row>
     <row r="17" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -2825,7 +2857,7 @@
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2835,7 +2867,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2851,7 +2883,7 @@
     </row>
     <row r="18" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
@@ -2877,7 +2909,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2898,7 +2930,7 @@
     </row>
     <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
@@ -2922,11 +2954,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="3"/>
       <c r="J19" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2947,7 +2979,7 @@
     </row>
     <row r="20" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
@@ -2973,7 +3005,7 @@
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4" t="s">
@@ -2998,7 +3030,7 @@
     </row>
     <row r="21" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
@@ -3022,7 +3054,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="3"/>
       <c r="J21" s="38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
@@ -3044,7 +3076,7 @@
     </row>
     <row r="22" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B22" s="11">
         <v>2</v>
@@ -3082,10 +3114,10 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="X22" s="40"/>
       <c r="Y22" s="41"/>
@@ -3095,7 +3127,7 @@
     </row>
     <row r="23" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -3114,7 +3146,7 @@
         <v>2.6</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H23" s="18">
         <v>0.5</v>
@@ -3123,7 +3155,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3146,9 +3178,9 @@
       <c r="AA23" s="41"/>
       <c r="AB23" s="41"/>
     </row>
-    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B24" s="11">
         <v>2</v>
@@ -3157,13 +3189,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E24" s="11">
         <v>7</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(TEXT(B24,"0"),".",TEXT(E24,"0"))</f>
         <v>2.7</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -3171,18 +3203,12 @@
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3199,9 +3225,9 @@
       <c r="AA24" s="41"/>
       <c r="AB24" s="41"/>
     </row>
-    <row r="25" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
@@ -3210,7 +3236,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E25" s="11">
         <v>8</v>
@@ -3220,16 +3246,18 @@
         <v>2.8</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="J25" s="46"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3248,7 +3276,7 @@
     </row>
     <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
@@ -3257,24 +3285,26 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="E26" s="11">
         <v>9</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(TEXT(B26,"0"),".",TEXT(E26,"0"))</f>
         <v>2.9</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3291,9 +3321,9 @@
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
     </row>
-    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
@@ -3302,7 +3332,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E27" s="11">
         <v>10</v>
@@ -3312,18 +3342,22 @@
         <v>2.10</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -3336,9 +3370,9 @@
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
     </row>
-    <row r="28" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -3347,7 +3381,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E28" s="11">
         <v>11</v>
@@ -3357,16 +3391,14 @@
         <v>2.11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="15" t="s">
-        <v>65</v>
+      <c r="L28" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3385,9 +3417,9 @@
       <c r="AA28" s="41"/>
       <c r="AB28" s="41"/>
     </row>
-    <row r="29" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -3396,7 +3428,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" s="11">
         <v>12</v>
@@ -3405,16 +3437,18 @@
         <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="18"/>
+      <c r="G29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3432,9 +3466,9 @@
       <c r="AA29" s="41"/>
       <c r="AB29" s="41"/>
     </row>
-    <row r="30" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -3443,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -3453,16 +3487,16 @@
         <v>2.13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3479,9 +3513,9 @@
       <c r="AA30" s="41"/>
       <c r="AB30" s="41"/>
     </row>
-    <row r="31" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -3490,7 +3524,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11">
         <v>14</v>
@@ -3500,20 +3534,18 @@
         <v>2.14</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3530,9 +3562,9 @@
       <c r="AA31" s="41"/>
       <c r="AB31" s="41"/>
     </row>
-    <row r="32" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -3541,22 +3573,26 @@
         <v>25</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E32" s="11">
         <v>15</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f t="shared" ref="F32:F33" si="1">CONCATENATE(TEXT(B32,"0"),".",TEXT(E32,"0"))</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="12" t="s">
-        <v>136</v>
+        <v>152</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3577,9 +3613,9 @@
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
     </row>
-    <row r="33" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -3588,22 +3624,22 @@
         <v>25</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E33" s="11">
         <v>16</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F33:F34" si="2">CONCATENATE(TEXT(B33,"0"),".",TEXT(E33,"0"))</f>
         <v>2.16</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="15"/>
       <c r="J33" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3624,9 +3660,9 @@
       <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
     </row>
-    <row r="34" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -3635,22 +3671,22 @@
         <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="E34" s="11">
         <v>17</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f t="shared" ref="F34" si="2">CONCATENATE(TEXT(B34,"0"),".",TEXT(E34,"0"))</f>
+        <f t="shared" si="2"/>
         <v>2.17</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="39" t="s">
-        <v>138</v>
+      <c r="J34" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3673,33 +3709,33 @@
     </row>
     <row r="35" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E35" s="11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>141</v>
+        <f t="shared" ref="F35" si="3">CONCATENATE(TEXT(B35,"0"),".",TEXT(E35,"0"))</f>
+        <v>2.18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="15" t="s">
-        <v>142</v>
-      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3712,42 +3748,40 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
     </row>
     <row r="36" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E36" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0.5</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="18"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="24" t="s">
-        <v>66</v>
+      <c r="K36" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3769,35 +3803,35 @@
     </row>
     <row r="37" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H37" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>73</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3808,9 +3842,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="10"/>
@@ -3818,32 +3850,34 @@
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
     </row>
-    <row r="38" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E38" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0.1</v>
+      </c>
       <c r="I38" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3853,13 +3887,13 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="44"/>
       <c r="Y38" s="10"/>
@@ -3867,32 +3901,32 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E39" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3902,9 +3936,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="R39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
       <c r="U39" s="3"/>
       <c r="V39" s="4"/>
       <c r="W39" s="3"/>
@@ -3914,52 +3950,46 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E40" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0.1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H40" s="18"/>
       <c r="I40" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="V40" s="4"/>
       <c r="W40" s="3"/>
       <c r="X40" s="44"/>
       <c r="Y40" s="10"/>
@@ -3967,104 +3997,121 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="45"/>
+    <row r="41" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="11">
+        <v>6</v>
+      </c>
+      <c r="F41" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="44"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="10"/>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="45"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
     <row r="43" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
@@ -4075,15 +4122,15 @@
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="34"/>
       <c r="G44" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="5"/>
@@ -4107,11 +4154,11 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>20</v>
@@ -4119,7 +4166,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="34"/>
       <c r="G45" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="5"/>
@@ -4143,11 +4190,11 @@
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>20</v>
@@ -4155,7 +4202,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="34"/>
       <c r="G46" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="5"/>
@@ -4183,7 +4230,7 @@
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>20</v>
@@ -4191,7 +4238,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="34"/>
       <c r="G47" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="5"/>
@@ -4215,11 +4262,11 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
-    <row r="48" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>20</v>
@@ -4227,7 +4274,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="34"/>
       <c r="G48" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="5"/>
@@ -4251,11 +4298,11 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>20</v>
@@ -4263,7 +4310,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="34"/>
       <c r="G49" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="5"/>
@@ -4287,11 +4334,11 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
     </row>
-    <row r="50" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>20</v>
@@ -4299,7 +4346,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="34"/>
       <c r="G50" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="5"/>
@@ -4323,11 +4370,11 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
@@ -4335,7 +4382,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="34"/>
       <c r="G51" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="5"/>
@@ -4363,7 +4410,7 @@
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>20</v>
@@ -4371,7 +4418,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="34"/>
       <c r="G52" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="5"/>
@@ -4399,7 +4446,7 @@
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>20</v>
@@ -4407,7 +4454,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="34"/>
       <c r="G53" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="5"/>
@@ -4435,7 +4482,7 @@
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>20</v>
@@ -4443,7 +4490,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="34"/>
       <c r="G54" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="5"/>
@@ -4471,7 +4518,7 @@
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>20</v>
@@ -4479,7 +4526,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="34"/>
       <c r="G55" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="5"/>
@@ -4503,9 +4550,45 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
     </row>
-    <row r="1048364" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+    </row>
+    <row r="1048365" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:IV55"/>
+  <autoFilter ref="A1:IV56"/>
   <conditionalFormatting sqref="H20:I20">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Signs">
@@ -4515,7 +4598,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H1048576 H35:H54 H1:H31">
+  <conditionalFormatting sqref="H57:H1048576 H36:H55 H1:H32">
     <cfRule type="iconSet" priority="12">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4524,7 +4607,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I55">
+  <conditionalFormatting sqref="H56:I56">
     <cfRule type="iconSet" priority="11">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4533,7 +4616,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H56">
     <cfRule type="iconSet" priority="10">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4542,7 +4625,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I32">
+  <conditionalFormatting sqref="H33:I33">
     <cfRule type="iconSet" priority="9">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4551,7 +4634,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H33">
     <cfRule type="iconSet" priority="8">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4560,7 +4643,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H33">
     <cfRule type="iconSet" priority="7">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4569,7 +4652,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:I34">
+  <conditionalFormatting sqref="H35:I35">
     <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4578,7 +4661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H35">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4587,7 +4670,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H35">
     <cfRule type="iconSet" priority="4">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4596,7 +4679,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
+  <conditionalFormatting sqref="H34:I34">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4605,7 +4688,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H34">
     <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4614,7 +4697,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H34">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4623,7 +4706,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H41 H2:H31">
+  <conditionalFormatting sqref="H36:H42 H2:H32">
     <cfRule type="iconSet" priority="19">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4632,7 +4715,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:I1048376 H35:I54 H2:I31">
+  <conditionalFormatting sqref="H57:I1048377 H36:I55 H2:I32">
     <cfRule type="iconSet" priority="20">
       <iconSet>
         <cfvo type="percent" val="0"/>

--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b017169\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b032672\Desktop\GovCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
   <si>
     <t>Aktør</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Anvender</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg at udbyder kan overvåger mine services og kan forsøge at genstarte applikationer, så jeg ikke behøves at reagere på simple (dem der kan klares ved en genstart) nedbrud.</t>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg, at udbyderen overvåger mine services og kontakter mig ved ikke-simple nedbrud, så vi sammen kan påbegynde fejlsøgning og fejlretning.</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>labels kan anvendes i [k8s.] til at udpege versioner af images.</t>
   </si>
   <si>
-    <t>Som anveder ønsker jeg at kunne starte et re-deploy af min applikation ved blot at ændre labels, så jeg hurtigt kan ændrer funktionalitet i min applikation</t>
-  </si>
-  <si>
     <t>Som anvender ønsker jeg at kunne se loggen fra mine deployments af applikationer, så jeg kan se om det lykkedes</t>
   </si>
   <si>
@@ -96,66 +90,27 @@
     <t>Udbyder</t>
   </si>
   <si>
-    <t>Som udbyder vil jeg gerne begrænse synlighed af statuses og incidents, så der ikke opstår unødig opmærksomhed fra offentligheden.</t>
-  </si>
-  <si>
     <t>Platform Service Delivery</t>
   </si>
   <si>
     <t>Som anvender ønsker vi samarbejdsfora på flere niveauer, hvor vi kan beskrive vores behov og påvirke prioriteringen af roadmap, med henblik at sikre at platformen er anvendelig for vores applikationer.</t>
   </si>
   <si>
-    <t>Som udbyder ønsker vi fora, hvor vi kan hører anvendernes behov med henblik på at sikre platformens relevans for vores kunder (anvender) og samtidig sikre frihed til at vælge middleware som giver den mest effektive implementering af services.</t>
-  </si>
-  <si>
     <t>SIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Som policy owner ønsker vi fora, hvor vi kan styre platformens roadmap med henblik på understøtte både anvendes behov og udbyders muligheder og vores policies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At DIGST har beslutningsret på roadmap udviklingen. </t>
-  </si>
-  <si>
-    <t>Som anvender af platformen ønsker jeg at kunne påvirke hvilke service der er tilrådighed, så jeg kan designe mine applikationer med henblik på minimal vedligehold. (sikkerhed for long term support)</t>
-  </si>
-  <si>
-    <t>Anvender ønsker at sikres sig, at applikationer kan flyttes til andre platforme med mindst mulig besvær, så anvendere ikke er bundet til en specifik leverandør.</t>
-  </si>
-  <si>
-    <t>Policy owner har ansvar for at sikre API er understøttet af flere produkter/leverandører</t>
-  </si>
-  <si>
     <t>[api] anvender snitflader der kan implementeres på andre platforme.</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg at platformens ressource udvides i takt med mine behov. ??[servicemodel]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy owner </t>
   </si>
   <si>
     <t>Platform Service Operation</t>
   </si>
   <si>
-    <t>Som policy owner ønsker jeg at anvendere kan tage ansvar for fejlfinding og ændringer i deres egen applikationer, så udbyderen ikke bliver en flaskehals for vedligehold.</t>
-  </si>
-  <si>
-    <t>Som policy owner ønsker jeg at anvendere kan tilgå andre anvenderes data gennem standardiserede dataservices, så det er nemt at dele data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">MapR læser rettigheder til volumes fra directory. </t>
   </si>
   <si>
-    <t>Som udbyder ønsker jeg et fælles netbaseret samarbejdsrum, hvor vi kan ved incidents kan hjælpe anvedere med workarounds.</t>
-  </si>
-  <si>
-    <t>Som anvender ønsker jeg et fælles netbaseret samarbejdsrum, hvor vi kan få adgang til support fra middleware og udbyder til at løse incidents.</t>
-  </si>
-  <si>
-    <t>Som policy owner ønsker jeg et fælles netbaseret samarbejdsrum, hvor vi i en logfil kan få overblik om hvordan en incident er blevet håndteret, samt sørge for at en anvender for professionel support til en løsning på incidents.</t>
-  </si>
-  <si>
     <t>applikationer kan læse og skrive JSON dokumenter på port 8243 på [data.]</t>
   </si>
   <si>
@@ -171,9 +126,6 @@
     <t>applikationer kan læse og skrive vilkårlige filer via NFS på port 2049 på [data.]</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg at kunne anvende dataservies fra platformen direkte fra eget netværk (well.... det bliver så nok igennem deres egen proxy-applikation og services. Er det noget udbyder til tilbyde?)</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -189,9 +141,6 @@
     <t>2019-09-01</t>
   </si>
   <si>
-    <t>Policy owner, ønsker at sikres sig, at applikationer kan flyttes til andre platforme med mindst mulig besvær, så vi sikre et konkurrence baseret marked for services.</t>
-  </si>
-  <si>
     <t>At DIGST har beslutningsret på roadmap udviklingen. At der udføres CAMMS vurderinger før ibrugtagning af nye snitflader.</t>
   </si>
   <si>
@@ -292,9 +241,6 @@
   </si>
   <si>
     <t>skal kunne opbevare alle felter der findes i modellen til beskrivelse af it-systemer.</t>
-  </si>
-  <si>
-    <t>beskriver at udbyder starter processen og at coll anvendes i håndteringen af hændelsen.</t>
   </si>
   <si>
     <t>kan sende påmindelse til ansvarlig
@@ -383,9 +329,6 @@
     <t>Aftale om hvilke fora og hvilke roller og hvilke opgaver</t>
   </si>
   <si>
-    <t xml:space="preserve">Aftale om deltagelse i fora fra kunder. </t>
-  </si>
-  <si>
     <t>Beskrive 'pligt' til deltagelse i fora?</t>
   </si>
   <si>
@@ -401,30 +344,9 @@
     <t>Policy Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Som udbyder ønsker jeg en prismodel der sikre at alle omkostninger til platformen kan henføres til forbrug og fordeles rimeligt mellem kunder, så vi kan beholde vores nuværende finansieringsmodel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Som anveder ønsker jeg en prismodel der er omkostningssikker og fair (viden om pris over længere tid og med varieret forbrug), så jeg kan overholde budgetvejledninger mm. </t>
-  </si>
-  <si>
-    <t>Prismodel beskriver faster og variable elementer. Anvender skal have reel mulighed for at påvirke variable</t>
-  </si>
-  <si>
-    <t>Prismodellen sikre at variable væsentlige udgifter kan fordeles efter forbrug.</t>
-  </si>
-  <si>
     <t>Prismodellen må ikke være så kompleks at det kræver dyre mekanismer at udregne pris</t>
   </si>
   <si>
-    <t xml:space="preserve">Som policyowner? ønsker jeg en prismodel der er simpel og har incitamenter for anvender til at begrænse anvendelse af ressourcer og starter lavt (med  henblik på udbredelse) </t>
-  </si>
-  <si>
-    <t>Som anvender ønsker jeg at udbyder bidrager med viden om platformen i forbindelse med problemer med mine applikationer. Og at de/vi har nem adgang til professional service i relation til middleware - så jeg hurtigst muligt kan få mine services til at kører igen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beskrivelse af adgang til platformsupport og professional service i hændelseshåndtering. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Som policy owner ønsker jeg en en token service, så det er nemt for anvender at fødereret brugerstyring som beskrevet i FDA. </t>
   </si>
   <si>
@@ -434,58 +356,145 @@
     <t>Kan anvende oplysninger fra SIT AD</t>
   </si>
   <si>
-    <t>Som udbyder ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at vise at udbyder har mødt det aftalte service niveau</t>
-  </si>
-  <si>
-    <t>Som udbyder ønsker jeg kendskab til anvenderes behov for kapicitet, så jeg kan planlægger provisioning af hardware, netværk og fysiske lokalitet.</t>
-  </si>
-  <si>
-    <t>Som  policy owner, ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Dette ønskes for at kunne skabe overblik over at servicens oppe tid er så høj som muligt, og til at vurdere hvor vidt det aftalt niveau bliver mødt.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roadmappet indeholder estimater over forbrug i form af ressourcer. </t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg et tydeligt overblik over om aftalte serviceniveauer er overholdt. Det ønskes for at skabe sikkerhed om at udbyder levere det aftalte service niveau.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">månedelige rapporter for platform og kundens applikationer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aftale KPI'er for platformen og summen af anvendere. </t>
   </si>
   <si>
     <t xml:space="preserve">Aftale KPI'er for kunder. </t>
   </si>
   <si>
-    <t xml:space="preserve">Forklaring af SLA og at der ikke er sanktioner. </t>
-  </si>
-  <si>
     <t>Som udbyder ønsker jeg at tilbyde platformen på en fælles servicemodel til alle anvendere, så jeg nemmere kan styre hele kundeforholdet.</t>
   </si>
   <si>
     <t>Som anvender ønsker jeg en tydelig beskrivelse af hvilke services og serviceniveauer jeg kan forvente, så jeg bedre kan indgå aftaler med eksterne leverandører og/eller ansætte kompetancer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tydelige henvisninger til specifikationer og versione, og planer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Servicemodel skal kunne anvendes som bilag i udbud. </t>
   </si>
   <si>
-    <t xml:space="preserve">Som policy owner ønsker jeg IKKE en særskilt proces for bestilling af ressourcer, da det vil være en barriere for i brugtagning. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacity planing i egen proces der ikke har med idriftsættelse at gøre. </t>
   </si>
   <si>
     <t xml:space="preserve">At servicemodellen er ens for alle. </t>
   </si>
   <si>
-    <t xml:space="preserve">Som policyowner? ønsker jeg at servicemodellen udbredes til alle eksisterende, med henblik på hurtig ibrugtaging. </t>
-  </si>
-  <si>
     <t>Tilføjelse til eksisterende kundeaftaler, med intro til direktioner</t>
+  </si>
+  <si>
+    <t>Som udbyder vil jeg gerne begrænse synlighed af statuser og hændelser så der ikke opstår unødig opmærksomhed fra offentligheden.</t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker vi fora, hvor vi kan høre anvendernes behov med henblik på at sikre platformens relevans for vores kunder (anvender) og samtidig sikre frihed til at vælge middleware som giver den mest effektive implementering af services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policy owner ønsker vi fora, hvor vi kan styre platformens roadmap med henblik på at understøtte både anvenders behov og udbyders muligheder og vores policies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At DIGST har beslutningsret på roadmapudviklingen. </t>
+  </si>
+  <si>
+    <t>Som anvender af platformen ønsker jeg at kunne påvirke hvilke servicer, der er til rådighed, så jeg får sikkerhed for langsigtet support og dermed kan designe mine applikationer med henblik på minimal vedligehold</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg at sikre mig, at applikationer kan flyttes til andre platforme med mindst mulig besvær, så jeg ikke bundet til en specifik leverandør.</t>
+  </si>
+  <si>
+    <t>Policy owner har ansvar for at sikre API'er er understøttet af flere produkter/leverandører</t>
+  </si>
+  <si>
+    <t>Anvender deltager i fora</t>
+  </si>
+  <si>
+    <t>Aftale om anvenderes deltagelse i fora</t>
+  </si>
+  <si>
+    <t>Som policy owner ønsker jeg at sikre mig, at applikationer kan flyttes til andre platforme med mindst mulig besvær, så vi understøtter et konkurrencebaseret marked for services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policy owner ønsker jeg IKKE en særskilt proces for bestilling af ressourcer, da det vil være en barriere for ibrugtagning. </t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg kendskab til anvenderes behov for kapacitet, så jeg kan planlægge provisioning af hardware, netværk og fysisk lokalitet.</t>
+  </si>
+  <si>
+    <t>Som  policy owner ønsker jeg et tydeligt overblik over aftalte og leverede serviceniveauer, så jeg har overblik over servicens oppetid og kan indgå i dialog med anvender og udbyder om serviceniveauer.</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg et tydeligt overblik over aftalte og leverede serviceniveauer, så jeg kan indgå i dialog med udbyder om serviceniveauerne.</t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg et tydeligt overblik over aftalte og leverede serviceniveauer, så jeg kan indgå i dialog med anvender om serviceniveauer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forklaring af SLA og at manglende overholdelse håndteres ved dialog frem for økonomiske sanktioner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">månedlige rapporter for platform og sum af anvenderes  applikationer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">månedlige rapporter for platform og anvenders applikationer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tydelige henvisninger til specifikationer, versioner og planer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policyowner ønsker jeg, at servicemodellen udbredes til alle eksisterende kunder, så platformens udbredelse understøttes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som anvender ønsker jeg en prismodel, der giver omkostningssikkerhed og rimelig (viden om pris over længere tid og med varieret forbrug), så jeg kan overholde budgetvejledninger mm. </t>
+  </si>
+  <si>
+    <t>Prismodel beskriver faster og variable elementer. Anvender skal have reel mulighed for at påvirke variable omkostninger ved at ændre forbrug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som udbyder ønsker jeg en prismodel, der sikrer, at alle omkostninger til platformen kan henføres til og fordeles rimeligt imellem kunder, så vi kan beholde vores nuværende finansieringsmodel. </t>
+  </si>
+  <si>
+    <t>Prismodellen afspejler både udbyders faste og variable omkostninger til platformen, og sikrer at begge kan fordeles til kunderne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som policyowner ønsker jeg en prismodel, der er simpel og starter lavt, så platformens udbredelse understøttes, og har incitamenter for anvendere til at begrænse anvendelse af ressourcer  </t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg, at udbyder bidrager med viden om platformen i forbindelse med problemer med mine applikationer og at de/vi har nem adgang til professionel service om middleware, så jeg hurtigst muligt kan få mine services til at køre igen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beskrivelse af adgang til platformsupport og professionel service i hændelseshåndtering. </t>
+  </si>
+  <si>
+    <t>Som policy owner ønsker jeg, at anvendere har selvbetjeningsmulighederne til at kunne tage ansvar for fejlfinding og ændringer i deres egen applikationer, så udbyder ikke bliver en flaskehals for vedligehold.</t>
+  </si>
+  <si>
+    <t>Som policy owner ønsker jeg, at anvendere kan tilgå andre anvenderes data gennem standardiserede dataservices, så det er nemt at dele data.</t>
+  </si>
+  <si>
+    <t>Som udbyder ønsker jeg et fælles netbaseret samarbejdsrum, hvor jeg kan hjælpe anvendere med at finde løsninger på hændelser.</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg et fælles netbaseret samarbejdsrum, hvor jeg kan få support om middleware til at løse incidents i mine applikationer.</t>
+  </si>
+  <si>
+    <t>Procesbeskrivelser for applikationsevents og -hændelser, samt procesbeskrivelser for platformsevents og -hændelser.</t>
+  </si>
+  <si>
+    <t>Som policy owner ønsker jeg et fælles netbaseret samarbejdsrum, hvor vi i en logfil kan få overblik om hvordan en incident er blevet håndteret, samt sørge for at en anvender får professionel support til en løsning på incidents.</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg at kunne starte et re-deploy af min applikation ved blot at ændre labels, så jeg hurtigt kan ændre funktionalitet i min applikation</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg, at udbyder overvåger mine services og  genstarter mine applikationer, så jeg ikke behøver at reagere på simple nedbrud, der kan klares ved genstart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beskriver at udbyder starter processen, at coll anvendes til håndteringen af hændelsen, at coll registrerer håndtering af hændelsen, </t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg at kunne anvende dataservices fra platformen direkte fra eget netværk (well.... det bliver så nok igennem deres egen proxy-applikation og services. Er det noget udbyder til tilbyde?)</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg, at platformens ressourcer udvides i takt med mine behov. ??[servicemodel]</t>
   </si>
 </sst>
 </file>
@@ -1989,9 +1998,9 @@
   </sheetPr>
   <dimension ref="A1:IV1048365"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2015,22 +2024,22 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2039,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -2054,34 +2063,34 @@
         <v>6</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="41"/>
@@ -2091,7 +2100,7 @@
     </row>
     <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2110,7 +2119,7 @@
         <v>1.3</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="3"/>
@@ -2120,10 +2129,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="14" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -2140,7 +2149,7 @@
     </row>
     <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2159,7 +2168,7 @@
         <v>1.4</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="3"/>
@@ -2176,7 +2185,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="40"/>
@@ -2187,7 +2196,7 @@
     </row>
     <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -2206,7 +2215,7 @@
         <v>1.5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="3"/>
@@ -2216,7 +2225,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -2234,7 +2243,7 @@
     </row>
     <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>1.6</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="3"/>
@@ -2263,20 +2272,20 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="40"/>
@@ -2285,9 +2294,9 @@
       <c r="AA5" s="41"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -2306,15 +2315,15 @@
         <v>1.1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="14" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2322,14 +2331,14 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="40"/>
@@ -2340,7 +2349,7 @@
     </row>
     <row r="7" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2359,24 +2368,24 @@
         <v>1.2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="14" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -2391,7 +2400,7 @@
     </row>
     <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2410,11 +2419,11 @@
         <v>1.15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2424,7 +2433,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2440,7 +2449,7 @@
     </row>
     <row r="9" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -2459,11 +2468,11 @@
         <v>1.7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2471,17 +2480,17 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2493,7 +2502,7 @@
     </row>
     <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -2512,11 +2521,11 @@
         <v>1.8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2524,19 +2533,19 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="15" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2548,7 +2557,7 @@
     </row>
     <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -2557,7 +2566,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11">
         <v>9</v>
@@ -2567,7 +2576,7 @@
         <v>1.9</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="3"/>
@@ -2581,7 +2590,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2595,7 +2604,7 @@
     </row>
     <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -2614,7 +2623,7 @@
         <v>1.10</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="3"/>
@@ -2631,7 +2640,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="44"/>
@@ -2642,7 +2651,7 @@
     </row>
     <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -2661,7 +2670,7 @@
         <v>1.11</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="3"/>
@@ -2678,7 +2687,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="44"/>
@@ -2689,7 +2698,7 @@
     </row>
     <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -2708,7 +2717,7 @@
         <v>1.12</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="3"/>
@@ -2725,7 +2734,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="44"/>
@@ -2736,7 +2745,7 @@
     </row>
     <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -2755,11 +2764,11 @@
         <v>1.13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2783,7 +2792,7 @@
     </row>
     <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -2792,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="11">
         <v>14</v>
@@ -2802,13 +2811,13 @@
         <v>1.14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" s="18">
         <v>0</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2816,7 +2825,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2834,7 +2843,7 @@
     </row>
     <row r="17" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -2843,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="11">
         <v>16</v>
@@ -2853,11 +2862,11 @@
         <v>1.16</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2867,7 +2876,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2883,13 +2892,13 @@
     </row>
     <row r="18" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>9</v>
@@ -2902,14 +2911,14 @@
         <v>2.1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2930,16 +2939,16 @@
     </row>
     <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -2949,16 +2958,16 @@
         <v>2.2</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="3"/>
       <c r="J19" s="15" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2979,16 +2988,16 @@
     </row>
     <row r="20" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="11">
         <v>3</v>
@@ -2998,18 +3007,18 @@
         <v>2.3</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3030,13 +3039,13 @@
     </row>
     <row r="21" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>9</v>
@@ -3049,15 +3058,17 @@
         <v>2.4</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="3"/>
       <c r="J21" s="38" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -3074,15 +3085,15 @@
       <c r="AA21" s="41"/>
       <c r="AB21" s="41"/>
     </row>
-    <row r="22" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B22" s="11">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>9</v>
@@ -3095,14 +3106,14 @@
         <v>2.5</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3114,10 +3125,10 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="X22" s="40"/>
       <c r="Y22" s="41"/>
@@ -3127,16 +3138,16 @@
     </row>
     <row r="23" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11">
         <v>6</v>
@@ -3146,7 +3157,7 @@
         <v>2.6</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="H23" s="18">
         <v>0.5</v>
@@ -3155,7 +3166,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="14" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3167,10 +3178,10 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="X23" s="40"/>
       <c r="Y23" s="41"/>
@@ -3180,13 +3191,13 @@
     </row>
     <row r="24" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B24" s="11">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>9</v>
@@ -3199,11 +3210,11 @@
         <v>2.7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="3"/>
@@ -3227,16 +3238,16 @@
     </row>
     <row r="25" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11">
         <v>8</v>
@@ -3246,17 +3257,17 @@
         <v>2.8</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="3"/>
       <c r="L25" s="15"/>
       <c r="M25" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3276,16 +3287,16 @@
     </row>
     <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E26" s="11">
         <v>9</v>
@@ -3295,13 +3306,13 @@
         <v>2.9</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="12"/>
       <c r="J26" s="46"/>
       <c r="K26" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="4"/>
@@ -3321,15 +3332,15 @@
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
     </row>
-    <row r="27" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>9</v>
@@ -3342,12 +3353,12 @@
         <v>2.10</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3356,7 +3367,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3370,18 +3381,18 @@
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
     </row>
-    <row r="28" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="11">
         <v>11</v>
@@ -3391,20 +3402,22 @@
         <v>2.11</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -3419,16 +3432,16 @@
     </row>
     <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="11">
         <v>12</v>
@@ -3438,7 +3451,7 @@
         <v>2.12</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H29" s="18">
         <v>0</v>
@@ -3447,13 +3460,15 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="15" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3468,16 +3483,16 @@
     </row>
     <row r="30" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -3487,12 +3502,12 @@
         <v>2.13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="12" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3515,13 +3530,13 @@
     </row>
     <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>9</v>
@@ -3534,17 +3549,17 @@
         <v>2.14</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3564,16 +3579,16 @@
     </row>
     <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E32" s="11">
         <v>15</v>
@@ -3583,16 +3598,16 @@
         <v>2.15</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H32" s="18">
         <v>0.5</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3613,15 +3628,15 @@
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
     </row>
-    <row r="33" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>9</v>
@@ -3634,12 +3649,12 @@
         <v>2.16</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="15"/>
       <c r="J33" s="12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3660,18 +3675,18 @@
       <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
     </row>
-    <row r="34" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="11">
         <v>17</v>
@@ -3681,12 +3696,12 @@
         <v>2.17</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="15"/>
       <c r="J34" s="12" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3709,16 +3724,16 @@
     </row>
     <row r="35" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E35" s="11">
         <v>18</v>
@@ -3728,12 +3743,12 @@
         <v>2.18</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="15"/>
       <c r="J35" s="39" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3756,13 +3771,13 @@
     </row>
     <row r="36" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>9</v>
@@ -3775,13 +3790,13 @@
         <v>3.1</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3803,16 +3818,16 @@
     </row>
     <row r="37" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="11">
         <v>2</v>
@@ -3822,7 +3837,7 @@
         <v>3.2</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="H37" s="18">
         <v>0.5</v>
@@ -3830,7 +3845,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="24" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3852,16 +3867,16 @@
     </row>
     <row r="38" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="11">
         <v>3</v>
@@ -3871,13 +3886,13 @@
         <v>3.3</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="H38" s="18">
         <v>0.1</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3892,7 +3907,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="44"/>
@@ -3901,18 +3916,18 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="11">
         <v>4</v>
@@ -3922,14 +3937,16 @@
         <v>3.4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -3937,7 +3954,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -3950,15 +3967,15 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>9</v>
@@ -3971,14 +3988,16 @@
         <v>3.5</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -3999,16 +4018,16 @@
     </row>
     <row r="41" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E41" s="11">
         <v>6</v>
@@ -4018,18 +4037,18 @@
         <v>3.6</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="H41" s="18">
         <v>0.1</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4037,7 +4056,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -4058,7 +4077,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="32"/>
       <c r="G42" s="30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="29"/>
@@ -4086,7 +4105,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>9</v>
@@ -4094,7 +4113,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="33"/>
       <c r="G43" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="6"/>
@@ -4122,15 +4141,15 @@
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="34"/>
       <c r="G44" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="5"/>
@@ -4158,15 +4177,15 @@
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="34"/>
       <c r="G45" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="5"/>
@@ -4194,15 +4213,15 @@
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="34"/>
       <c r="G46" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="5"/>
@@ -4230,15 +4249,15 @@
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="34"/>
       <c r="G47" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="5"/>
@@ -4266,15 +4285,15 @@
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="34"/>
       <c r="G48" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="5"/>
@@ -4302,15 +4321,15 @@
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="34"/>
       <c r="G49" s="8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="5"/>
@@ -4338,15 +4357,15 @@
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="34"/>
       <c r="G50" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="5"/>
@@ -4374,15 +4393,15 @@
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="34"/>
       <c r="G51" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="5"/>
@@ -4410,15 +4429,15 @@
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="34"/>
       <c r="G52" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="5"/>
@@ -4446,15 +4465,15 @@
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="34"/>
       <c r="G53" s="8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="5"/>
@@ -4482,15 +4501,15 @@
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="34"/>
       <c r="G54" s="8" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="5"/>
@@ -4518,15 +4537,15 @@
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="34"/>
       <c r="G55" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="5"/>
@@ -4554,15 +4573,15 @@
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="34"/>
       <c r="G56" s="8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="5"/>

--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -5,24 +5,59 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b032672\Desktop\GovCloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b017169\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IV$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IV$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mads Hjorth</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mads Hjorth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Opdateret efter møde med DMI 5. august
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
   <si>
     <t>Aktør</t>
   </si>
@@ -69,15 +104,9 @@
     <t>Som anvender ønsker jeg at kunne se loggen fra mine kørende applikationer, så jeg kan sikre mig at den kører som forventligt eller jeg kan finde ud af hvorfor den ikke gør</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg kunne begrænse adgangen til services til kendte anvendere, så jeg undgår unfair use eller anonyme anvendelse</t>
-  </si>
-  <si>
     <t>anvender kan oprette og slette api-nøgler ved web-service kald.</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg at kunne tildele adgang til services, applikationer og data til bruger i egen og andre organisationer (inden for SIT AD), så vi bedre kan arbejde sammen.</t>
-  </si>
-  <si>
     <t>Policy owner</t>
   </si>
   <si>
@@ -120,9 +149,6 @@
     <t>applikationer kan læse og skrive meddelelser via Kafka på port 8082 på [data.]</t>
   </si>
   <si>
-    <t>Som anvender ønsker jeg skrive og læse binære filer fra min applikation, så jeg selv kan deploye andre dataservices som fx SQL.</t>
-  </si>
-  <si>
     <t>applikationer kan læse og skrive vilkårlige filer via NFS på port 2049 på [data.]</t>
   </si>
   <si>
@@ -154,9 +180,6 @@
   </si>
   <si>
     <t>Er den i leverancen?</t>
-  </si>
-  <si>
-    <t>Er denne accepteret af alle parter?</t>
   </si>
   <si>
     <t>ID</t>
@@ -495,13 +518,43 @@
   </si>
   <si>
     <t>Som anvender ønsker jeg, at platformens ressourcer udvides i takt med mine behov. ??[servicemodel]</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg skrive og læse filer i vilkårligt format fra min applikation, så jeg selv kan deploye andre dataservices som fx SQL.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PaaS+</t>
+  </si>
+  <si>
+    <t>Netværksovervågning</t>
+  </si>
+  <si>
+    <t>Det skal være muligt at opbevare applikationers rettigheder til datasæt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som anvender ønsker jeg at adgang til de rå log filer for mine applikationer og mulighed for at lave datamining, så jeg bedre kan forestå anvendelsen af mine applikationer. </t>
+  </si>
+  <si>
+    <t>Automatisering og selvbetjening….</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg kunne begrænse (eller fjerne) adgangen til services til kendte anvendere, så jeg kan kontakte mine anvendere og fortælle hvem der anvender. [Overvej udbyders grunde til at begrænse.]</t>
+  </si>
+  <si>
+    <t>Kunne registre mail på en serviceansvarlig. Husk funktionspostkasse.</t>
+  </si>
+  <si>
+    <t>Angiv elementer i SLA og forklar konsekvenser.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -554,6 +607,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -612,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -713,11 +779,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +906,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1992,54 +2084,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV1048365"/>
+  <dimension ref="A1:IV1048369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="1" customWidth="1"/>
-    <col min="10" max="23" width="20.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="40.7265625" style="42" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="35.7265625" style="42" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="20.7265625" style="42" hidden="1" customWidth="1"/>
-    <col min="29" max="256" width="8.81640625" style="42" hidden="1" customWidth="1"/>
-    <col min="257" max="16384" width="8.81640625" style="43" hidden="1"/>
+    <col min="8" max="8" width="7.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="23" width="20.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="40.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="35.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="20.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="29" max="256" width="8.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.85546875" style="43" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2048,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -2063,34 +2155,34 @@
         <v>6</v>
       </c>
       <c r="N1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>86</v>
-      </c>
       <c r="U1" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="41"/>
@@ -2098,9 +2190,9 @@
       <c r="AA1" s="41"/>
       <c r="AB1" s="41"/>
     </row>
-    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2112,11 +2204,11 @@
         <v>9</v>
       </c>
       <c r="E2" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="31" t="str">
         <f>CONCATENATE(TEXT(B2,"0"),".",TEXT(E2,"0"))</f>
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
@@ -2129,7 +2221,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>12</v>
@@ -2147,9 +2239,9 @@
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>
     </row>
-    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2161,14 +2253,14 @@
         <v>9</v>
       </c>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="31" t="str">
         <f>CONCATENATE(TEXT(B3,"0"),".",TEXT(E3,"0"))</f>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="3"/>
@@ -2185,7 +2277,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="40"/>
@@ -2194,9 +2286,9 @@
       <c r="AA3" s="41"/>
       <c r="AB3" s="41"/>
     </row>
-    <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -2208,11 +2300,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="31" t="str">
         <f>CONCATENATE(TEXT(B4,"0"),".",TEXT(E4,"0"))</f>
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
@@ -2225,7 +2317,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -2241,9 +2333,9 @@
       <c r="AA4" s="41"/>
       <c r="AB4" s="41"/>
     </row>
-    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -2255,11 +2347,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="31" t="str">
         <f>CONCATENATE(TEXT(B5,"0"),".",TEXT(E5,"0"))</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
@@ -2272,20 +2364,20 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="40"/>
@@ -2294,9 +2386,9 @@
       <c r="AA5" s="41"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -2307,38 +2399,40 @@
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
+      <c r="E6" s="11">
+        <v>5</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f t="shared" ref="F6:F41" si="0">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
-        <v>1.1</v>
+        <f t="shared" ref="F6:F42" si="0">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
+        <v>1.5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="Q6" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="40"/>
@@ -2347,9 +2441,9 @@
       <c r="AA6" s="41"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2361,11 +2455,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
@@ -2374,18 +2468,18 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -2398,9 +2492,9 @@
       <c r="AA7" s="41"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2412,18 +2506,18 @@
         <v>9</v>
       </c>
       <c r="E8" s="11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8" s="31" t="str">
         <f>CONCATENATE(TEXT(B8,"0"),".",TEXT(E8,"0"))</f>
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2433,7 +2527,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2447,9 +2541,9 @@
       <c r="AA8" s="41"/>
       <c r="AB8" s="41"/>
     </row>
-    <row r="9" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -2461,18 +2555,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2480,17 +2574,17 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2500,9 +2594,9 @@
       <c r="AA9" s="41"/>
       <c r="AB9" s="41"/>
     </row>
-    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -2514,18 +2608,18 @@
         <v>9</v>
       </c>
       <c r="E10" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2533,19 +2627,19 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2555,9 +2649,9 @@
       <c r="AA10" s="41"/>
       <c r="AB10" s="41"/>
     </row>
-    <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -2566,17 +2660,17 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="31" t="str">
-        <f t="shared" ref="F11:F16" si="1">CONCATENATE(TEXT(B11,"0"),".",TEXT(E11,"0"))</f>
-        <v>1.9</v>
+        <f t="shared" ref="F11:F15" si="1">CONCATENATE(TEXT(B11,"0"),".",TEXT(E11,"0"))</f>
+        <v>1.10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="3"/>
@@ -2590,7 +2684,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2602,9 +2696,9 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -2616,14 +2710,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1.10</v>
+        <v>1.11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="3"/>
@@ -2640,7 +2734,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="44"/>
@@ -2649,9 +2743,9 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -2663,14 +2757,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="3"/>
@@ -2687,7 +2781,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="44"/>
@@ -2696,9 +2790,9 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -2710,14 +2804,14 @@
         <v>9</v>
       </c>
       <c r="E14" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="3"/>
@@ -2734,7 +2828,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="44"/>
@@ -2743,9 +2837,9 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -2754,28 +2848,32 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
       <c r="I15" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2784,15 +2882,15 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-    </row>
-    <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+    </row>
+    <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -2801,34 +2899,32 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1.14</v>
+        <f t="shared" si="0"/>
+        <v>1.15</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2841,43 +2937,41 @@
       <c r="AA16" s="41"/>
       <c r="AB16" s="41"/>
     </row>
-    <row r="17" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11">
         <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="11">
-        <v>16</v>
       </c>
       <c r="F17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2890,35 +2984,37 @@
       <c r="AA17" s="41"/>
       <c r="AB17" s="41"/>
     </row>
-    <row r="18" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E18" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="14" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2937,37 +3033,39 @@
       <c r="AA18" s="41"/>
       <c r="AB18" s="41"/>
     </row>
-    <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E19" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="14" t="s">
-        <v>127</v>
+      <c r="L19" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2986,35 +3084,33 @@
       <c r="AA19" s="41"/>
       <c r="AB19" s="41"/>
     </row>
-    <row r="20" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E20" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15" t="s">
-        <v>103</v>
+        <v>119</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4" t="s">
@@ -3028,46 +3124,43 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
       <c r="AA20" s="41"/>
       <c r="AB20" s="41"/>
     </row>
-    <row r="21" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="38" t="s">
-        <v>102</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3077,43 +3170,50 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="X21" s="40"/>
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
       <c r="AA21" s="41"/>
       <c r="AB21" s="41"/>
     </row>
-    <row r="22" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="11">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="8" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="4" t="s">
-        <v>125</v>
+      <c r="L22" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3124,11 +3224,11 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>104</v>
+      <c r="V22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="X22" s="40"/>
       <c r="Y22" s="41"/>
@@ -3136,38 +3236,36 @@
       <c r="AA22" s="41"/>
       <c r="AB22" s="41"/>
     </row>
-    <row r="23" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E23" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+        <f>CONCATENATE(TEXT(B23,"0"),".",TEXT(E23,"0"))</f>
+        <v>2.7</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3177,49 +3275,47 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
       <c r="X23" s="40"/>
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
       <c r="AA23" s="41"/>
       <c r="AB23" s="41"/>
     </row>
-    <row r="24" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="11">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E24" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f>CONCATENATE(TEXT(B24,"0"),".",TEXT(E24,"0"))</f>
-        <v>2.7</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="J24" s="46"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3236,39 +3332,39 @@
       <c r="AA24" s="41"/>
       <c r="AB24" s="41"/>
     </row>
-    <row r="25" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="E25" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
+        <f>CONCATENATE(TEXT(B25,"0"),".",TEXT(E25,"0"))</f>
+        <v>2.9</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="3"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L25" s="15"/>
-      <c r="M25" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3285,41 +3381,43 @@
       <c r="AA25" s="41"/>
       <c r="AB25" s="41"/>
     </row>
-    <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E26" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f>CONCATENATE(TEXT(B26,"0"),".",TEXT(E26,"0"))</f>
-        <v>2.9</v>
+        <f t="shared" si="0"/>
+        <v>2.10</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3332,42 +3430,42 @@
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
     </row>
-    <row r="27" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.10</v>
+        <v>2.11</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3381,42 +3479,44 @@
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
     </row>
-    <row r="28" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.11</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="18"/>
+        <v>2.12</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
-        <v>112</v>
+      <c r="L28" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3430,45 +3530,41 @@
       <c r="AA28" s="41"/>
       <c r="AB28" s="41"/>
     </row>
-    <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.12</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
+        <v>2.13</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3481,37 +3577,39 @@
       <c r="AA29" s="41"/>
       <c r="AB29" s="41"/>
     </row>
-    <row r="30" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E30" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="12" t="s">
-        <v>117</v>
+      <c r="J30" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3528,39 +3626,41 @@
       <c r="AA30" s="41"/>
       <c r="AB30" s="41"/>
     </row>
-    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E31" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3577,37 +3677,33 @@
       <c r="AA31" s="41"/>
       <c r="AB31" s="41"/>
     </row>
-    <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E32" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15</v>
+        <f t="shared" ref="F32:F33" si="2">CONCATENATE(TEXT(B32,"0"),".",TEXT(E32,"0"))</f>
+        <v>2.16</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3628,33 +3724,33 @@
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
     </row>
-    <row r="33" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E33" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f t="shared" ref="F33:F34" si="2">CONCATENATE(TEXT(B33,"0"),".",TEXT(E33,"0"))</f>
-        <v>2.16</v>
+        <f t="shared" si="2"/>
+        <v>2.17</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="15"/>
       <c r="J33" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3675,33 +3771,33 @@
       <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
     </row>
-    <row r="34" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="E34" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>2.17</v>
+        <f t="shared" ref="F34" si="3">CONCATENATE(TEXT(B34,"0"),".",TEXT(E34,"0"))</f>
+        <v>2.18</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="12" t="s">
-        <v>142</v>
+      <c r="J34" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3722,35 +3818,35 @@
       <c r="AA34" s="41"/>
       <c r="AB34" s="41"/>
     </row>
-    <row r="35" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E35" s="11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f t="shared" ref="F35" si="3">CONCATENATE(TEXT(B35,"0"),".",TEXT(E35,"0"))</f>
-        <v>2.18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>143</v>
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3763,40 +3859,42 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-    </row>
-    <row r="36" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X35" s="44"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E36" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="18"/>
+        <v>3.2</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="15" t="s">
-        <v>145</v>
+      <c r="K36" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3816,48 +3914,52 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H37" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="24" t="s">
-        <v>40</v>
-      </c>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="O37" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="V37" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="10"/>
@@ -3865,50 +3967,50 @@
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
     </row>
-    <row r="38" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0.1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H38" s="18"/>
       <c r="I38" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="R38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="V38" s="4"/>
       <c r="W38" s="3"/>
       <c r="X38" s="44"/>
       <c r="Y38" s="10"/>
@@ -3916,36 +4018,36 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E39" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3953,11 +4055,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="4"/>
       <c r="W39" s="3"/>
@@ -3967,48 +4067,52 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E40" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0.1</v>
+      </c>
       <c r="I40" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L40" s="3"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="R40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="4"/>
+      <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="44"/>
       <c r="Y40" s="10"/>
@@ -4016,212 +4120,213 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E41" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F41" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>X.1</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="L41" s="48"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="R41" s="49"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="44"/>
+      <c r="X41" s="45"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
+    <row r="42" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="47">
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>X.2</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
       <c r="X42" s="45"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="10"/>
+    <row r="43" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="45"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
     </row>
-    <row r="44" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+    <row r="44" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+    <row r="45" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
     </row>
-    <row r="46" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="34"/>
       <c r="G46" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="5"/>
@@ -4245,19 +4350,17 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>18</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="34"/>
       <c r="G47" s="8" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="5"/>
@@ -4281,19 +4384,19 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="34"/>
       <c r="G48" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="5"/>
@@ -4317,19 +4420,19 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="34"/>
       <c r="G49" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="5"/>
@@ -4353,20 +4456,14 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="10"/>
       <c r="F50" s="34"/>
-      <c r="G50" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="G50" s="8"/>
       <c r="H50" s="21"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -4389,19 +4486,19 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="34"/>
       <c r="G51" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="5"/>
@@ -4425,19 +4522,19 @@
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="34"/>
       <c r="G52" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="5"/>
@@ -4461,19 +4558,19 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="34"/>
       <c r="G53" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="5"/>
@@ -4497,19 +4594,19 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="34"/>
       <c r="G54" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="5"/>
@@ -4533,19 +4630,19 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="34"/>
       <c r="G55" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="5"/>
@@ -4569,19 +4666,19 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="34"/>
       <c r="G56" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="5"/>
@@ -4605,10 +4702,154 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="1048365" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+    </row>
+    <row r="59" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+    </row>
+    <row r="60" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="21"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+    </row>
+    <row r="1048369" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:IV56"/>
-  <conditionalFormatting sqref="H20:I20">
+  <autoFilter ref="A1:IV60"/>
+  <conditionalFormatting sqref="H19:I19">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
@@ -4617,7 +4858,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H1048576 H36:H55 H1:H32">
+  <conditionalFormatting sqref="H61:H1048576 H1:H31 H35:H59">
     <cfRule type="iconSet" priority="12">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4626,7 +4867,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:I56">
+  <conditionalFormatting sqref="H60:I60">
     <cfRule type="iconSet" priority="11">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4635,7 +4876,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H60">
     <cfRule type="iconSet" priority="10">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4644,7 +4885,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
+  <conditionalFormatting sqref="H32:I32">
     <cfRule type="iconSet" priority="9">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4653,7 +4894,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H32">
     <cfRule type="iconSet" priority="8">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4662,7 +4903,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H32">
     <cfRule type="iconSet" priority="7">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4671,7 +4912,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I35">
+  <conditionalFormatting sqref="H34:I34">
     <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4680,7 +4921,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H34">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4689,7 +4930,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H34">
     <cfRule type="iconSet" priority="4">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4698,7 +4939,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:I34">
+  <conditionalFormatting sqref="H33:I33">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4707,7 +4948,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H33">
     <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4716,7 +4957,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H33">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4725,7 +4966,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H42 H2:H32">
+  <conditionalFormatting sqref="H35:H43 H2:H31">
     <cfRule type="iconSet" priority="19">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4734,7 +4975,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:I1048377 H36:I55 H2:I32">
+  <conditionalFormatting sqref="H61:I1048381 H2:I31 H35:I59">
     <cfRule type="iconSet" priority="20">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4748,5 +4989,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -2090,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:IV1048369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>

--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="199">
   <si>
     <t>Aktør</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Status (forklaring)</t>
   </si>
   <si>
-    <t>Er den i leverancen? Er det 1.8? Mangler adgangskontrol?</t>
-  </si>
-  <si>
-    <t>Besluttet, men ikke  udført?</t>
-  </si>
-  <si>
     <t>Performance and optimization</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
   </si>
   <si>
     <t>skal kunne opbevare api-nøgler</t>
-  </si>
-  <si>
-    <t>skal kunne opbevare rettigheder</t>
   </si>
   <si>
     <t>skal kunne opbevare alle felter der findes i modellen til beskrivelse af it-systemer.</t>
@@ -313,9 +304,6 @@
     <t xml:space="preserve">Skal forsøge at genstarte applikationer når services går ned. </t>
   </si>
   <si>
-    <t>Skal indeholde kontaktoplysninger per service</t>
-  </si>
-  <si>
     <t>Skal opdage ændringer i images i reg. Og kunne deploye automatisk.</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>Kan anvende oplysninger fra SIT AD</t>
   </si>
   <si>
-    <t xml:space="preserve">Roadmappet indeholder estimater over forbrug i form af ressourcer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aftale KPI'er for platformen og summen af anvendere. </t>
   </si>
   <si>
@@ -394,9 +379,6 @@
     <t>Som anvender ønsker jeg en tydelig beskrivelse af hvilke services og serviceniveauer jeg kan forvente, så jeg bedre kan indgå aftaler med eksterne leverandører og/eller ansætte kompetancer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicemodel skal kunne anvendes som bilag i udbud. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacity planing i egen proces der ikke har med idriftsættelse at gøre. </t>
   </si>
   <si>
@@ -427,9 +409,6 @@
     <t>Policy owner har ansvar for at sikre API'er er understøttet af flere produkter/leverandører</t>
   </si>
   <si>
-    <t>Anvender deltager i fora</t>
-  </si>
-  <si>
     <t>Aftale om anvenderes deltagelse i fora</t>
   </si>
   <si>
@@ -451,9 +430,6 @@
     <t>Som udbyder ønsker jeg et tydeligt overblik over aftalte og leverede serviceniveauer, så jeg kan indgå i dialog med anvender om serviceniveauer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Forklaring af SLA og at manglende overholdelse håndteres ved dialog frem for økonomiske sanktioner. </t>
-  </si>
-  <si>
     <t xml:space="preserve">månedlige rapporter for platform og sum af anvenderes  applikationer. </t>
   </si>
   <si>
@@ -548,13 +524,145 @@
   </si>
   <si>
     <t>Angiv elementer i SLA og forklar konsekvenser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Uklarhed om genstart sker automatisk</t>
+  </si>
+  <si>
+    <t>Er det DMI der prøver om det kan lade sig gøre?</t>
+  </si>
+  <si>
+    <t>Skal indeholde kontaktoplysninger per service. Husk mulighed for funktionspostkasse?</t>
+  </si>
+  <si>
+    <t>Uklarhed om hvilke kontaktoplysninger. Personlige?</t>
+  </si>
+  <si>
+    <t>Hvem har ansvar for at beskrive hvilke?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uklart hvilke begrænsninger der er nødvendige. </t>
+  </si>
+  <si>
+    <t>Ingen har endnu prøvet det fra applikationer. Hvem gør det?</t>
+  </si>
+  <si>
+    <t>Skal beskrive hvilken criticality issues har i SITs eksisterende service-sprog-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leve tid på 5+5. Afklar tidshorisonter. Liste tilgængelige services. </t>
+  </si>
+  <si>
+    <t>Accepteret af SIT?</t>
+  </si>
+  <si>
+    <t>Roadmappet indeholder estimater over forbrug i form af ressourcer. "hvor meget kan vi tage ind hvornår…</t>
+  </si>
+  <si>
+    <t>Pligt til at rapportere?</t>
+  </si>
+  <si>
+    <t>Accepteret af SIT? DMI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responstid på incidents. Tilkald af 3. part. dialog frem for økonomiske sanktioner. </t>
+  </si>
+  <si>
+    <t>Servicemodel skal kunne anvendes som bilag i udbud. Kort beskrivelse af 5+5.</t>
+  </si>
+  <si>
+    <t>Accepteret af SIT? Har applikationer id-er?</t>
+  </si>
+  <si>
+    <t>Mangler tidspunkt for 'go-live'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikre at den er beskrevet som service. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikre at support er dækket af servicemodel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangler plan for opbevaring af chatrum til senere brug. </t>
+  </si>
+  <si>
+    <t>Findes der er en PaaS+ aftale? Hvor dette optræder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill service tilgængelig. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beskriver konsekvens ved anvendels af services med begrænset support. </t>
+  </si>
+  <si>
+    <t>Manglende enighed om antal af fora…</t>
+  </si>
+  <si>
+    <t>Anvender deltager i fora, med mandat til valg af service</t>
+  </si>
+  <si>
+    <t>Fora ikke identificeret.</t>
+  </si>
+  <si>
+    <t>Findes der en plan for at forsøge at flytte en service ud af SIT?</t>
+  </si>
+  <si>
+    <t>Er det accepteret af SIT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMI vil gerne se udkast til servicemodel. </t>
+  </si>
+  <si>
+    <t>Netværks holdes udenfor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksplict i model at data kun kan komme ind og ud af platform via applikationer. </t>
+  </si>
+  <si>
+    <t>Drill må optræder ikke på 5+5, men på listen over andre tilgængelig services med uklar support.</t>
+  </si>
+  <si>
+    <t>Kan vi overveje at fjerne denne user story?</t>
+  </si>
+  <si>
+    <t>Et eksempel på eksisterende rapporter`?</t>
+  </si>
+  <si>
+    <t>Er der brug for at fastholde dette i en aftale mellem SIT og DIGST?</t>
+  </si>
+  <si>
+    <t>Har vi en plan for en vurdering hos mulige anvendere/leverandører?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er der nogen der har set udkast til en prismodel endnu? Den bør fremgå at servicemodel. </t>
+  </si>
+  <si>
+    <t>Er DMI tilfreds med hensigterne?</t>
+  </si>
+  <si>
+    <t>Bruger DMI og SIT mattermost?</t>
+  </si>
+  <si>
+    <t>DMI gør det i dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STS findes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGST har brugt NFS </t>
+  </si>
+  <si>
+    <t>DMI anvender OJAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -621,8 +729,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,12 +752,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -671,14 +779,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2FFC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -792,6 +894,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -810,18 +927,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,80 +950,62 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,10 +1014,28 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2090,31 +2207,31 @@
   </sheetPr>
   <dimension ref="A1:IV1048369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="23" width="20.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="40.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="35.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="20.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="29" max="256" width="8.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="257" max="16384" width="8.85546875" style="43" hidden="1"/>
+    <col min="8" max="8" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="28.26953125" style="1" customWidth="1"/>
+    <col min="10" max="23" width="20.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="40.7265625" style="36" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="35.7265625" style="36" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="20.7265625" style="36" hidden="1" customWidth="1"/>
+    <col min="29" max="256" width="8.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.81640625" style="37" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +2253,7 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
@@ -2154,43 +2271,43 @@
       <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-    </row>
-    <row r="2" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="W1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+    </row>
+    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2206,22 +2323,26 @@
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="31" t="str">
+      <c r="F2" s="26" t="str">
         <f>CONCATENATE(TEXT(B2,"0"),".",TEXT(E2,"0"))</f>
         <v>1.1</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="51">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>12</v>
@@ -2233,13 +2354,13 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-    </row>
-    <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+    </row>
+    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -2253,17 +2374,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="11">
+        <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F3" s="31" t="str">
+      <c r="F3" s="26" t="str">
         <f>CONCATENATE(TEXT(B3,"0"),".",TEXT(E3,"0"))</f>
         <v>1.2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2277,16 +2403,16 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-    </row>
-    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+    </row>
+    <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -2300,24 +2426,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="11">
+        <f t="shared" ref="E4:E15" si="0">E3+1</f>
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="str">
+      <c r="F4" s="26" t="str">
         <f>CONCATENATE(TEXT(B4,"0"),".",TEXT(E4,"0"))</f>
         <v>1.3</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -2327,13 +2458,13 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-    </row>
-    <row r="5" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+    </row>
+    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
@@ -2347,46 +2478,51 @@
         <v>9</v>
       </c>
       <c r="E5" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="31" t="str">
+      <c r="F5" s="26" t="str">
         <f>CONCATENATE(TEXT(B5,"0"),".",TEXT(E5,"0"))</f>
         <v>1.4</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-    </row>
-    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
@@ -2400,48 +2536,53 @@
         <v>9</v>
       </c>
       <c r="E6" s="11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="str">
-        <f t="shared" ref="F6:F42" si="0">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
+      <c r="F6" s="26" t="str">
+        <f t="shared" ref="F6:F42" si="1">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
         <v>1.5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="H6" s="51">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="J6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W6" s="3"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-    </row>
-    <row r="7" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+    </row>
+    <row r="7" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
@@ -2455,44 +2596,55 @@
         <v>9</v>
       </c>
       <c r="E7" s="11">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F7" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F7" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="51">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="3"/>
+      <c r="O7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-    </row>
-    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2506,18 +2658,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F8" s="31" t="str">
+      <c r="F8" s="26" t="str">
         <f>CONCATENATE(TEXT(B8,"0"),".",TEXT(E8,"0"))</f>
         <v>1.7</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17" t="s">
-        <v>40</v>
+      <c r="H8" s="51">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2527,7 +2682,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2535,13 +2690,13 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-    </row>
-    <row r="9" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+    </row>
+    <row r="9" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -2555,17 +2710,20 @@
         <v>9</v>
       </c>
       <c r="E9" s="11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F9" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="51">
+        <v>1</v>
+      </c>
+      <c r="I9" s="52" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="3"/>
@@ -2574,7 +2732,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2584,17 +2742,17 @@
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-    </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -2604,52 +2762,49 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="11">
-        <v>9</v>
-      </c>
-      <c r="F10" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F10" s="26" t="str">
+        <f t="shared" ref="F10:F14" si="2">CONCATENATE(TEXT(B10,"0"),".",TEXT(E10,"0"))</f>
         <v>1.9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
-        <v>40</v>
+      <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-    </row>
-    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X10" s="38"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
@@ -2659,21 +2814,26 @@
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>16</v>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11" s="31" t="str">
-        <f t="shared" ref="F11:F15" si="1">CONCATENATE(TEXT(B11,"0"),".",TEXT(E11,"0"))</f>
+      <c r="F11" s="26" t="str">
+        <f t="shared" si="2"/>
         <v>1.10</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="51">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2683,20 +2843,20 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="44"/>
+      <c r="X11" s="38"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
@@ -2710,17 +2870,22 @@
         <v>9</v>
       </c>
       <c r="E12" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" s="26" t="str">
+        <f t="shared" si="2"/>
         <v>1.11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2734,16 +2899,16 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W12" s="3"/>
-      <c r="X12" s="44"/>
+      <c r="X12" s="38"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -2757,17 +2922,22 @@
         <v>9</v>
       </c>
       <c r="E13" s="11">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="26" t="str">
+        <f t="shared" si="2"/>
         <v>1.12</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2781,16 +2951,16 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W13" s="3"/>
-      <c r="X13" s="44"/>
+      <c r="X13" s="38"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
@@ -2801,43 +2971,48 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="11">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" s="26" t="str">
+        <f t="shared" si="2"/>
         <v>1.13</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="51">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-    </row>
-    <row r="15" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="X14" s="34"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+    </row>
+    <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2848,96 +3023,99 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" s="11">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F15" s="31" t="str">
+      <c r="F15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>1.14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="H15" s="51">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-    </row>
-    <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11">
-        <v>15</v>
-      </c>
-      <c r="F16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>1.15</v>
+      <c r="F16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="H16" s="51">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-    </row>
-    <row r="17" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X16" s="34"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+    </row>
+    <row r="17" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2948,24 +3126,30 @@
         <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.2</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="H17" s="51">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="14" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2978,13 +3162,13 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-    </row>
-    <row r="18" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="X17" s="34"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+    </row>
+    <row r="18" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -2995,26 +3179,30 @@
         <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="51">
         <v>2</v>
       </c>
-      <c r="F18" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="J18" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="14" t="s">
-        <v>123</v>
+      <c r="L18" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -3027,13 +3215,13 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-    </row>
-    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X18" s="34"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+    </row>
+    <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3044,28 +3232,30 @@
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" s="11">
-        <v>3</v>
-      </c>
-      <c r="F19" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.3</v>
+        <v>4</v>
+      </c>
+      <c r="F19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15" t="s">
-        <v>99</v>
+        <v>113</v>
+      </c>
+      <c r="H19" s="51">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3075,16 +3265,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-    </row>
-    <row r="20" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+    </row>
+    <row r="20" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -3098,23 +3287,25 @@
         <v>9</v>
       </c>
       <c r="E20" s="11">
-        <v>4</v>
-      </c>
-      <c r="F20" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="38" t="s">
-        <v>98</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H20" s="51">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3124,15 +3315,20 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-    </row>
-    <row r="21" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="U20" s="3"/>
+      <c r="V20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+    </row>
+    <row r="21" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -3143,24 +3339,28 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E21" s="11">
-        <v>5</v>
-      </c>
-      <c r="F21" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="51">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
-        <v>121</v>
+      <c r="L21" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3171,19 +3371,19 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="W21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-    </row>
-    <row r="22" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="V21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
@@ -3194,27 +3394,27 @@
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22" s="11">
-        <v>6</v>
-      </c>
-      <c r="F22" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="26" t="str">
+        <f>CONCATENATE(TEXT(B22,"0"),".",TEXT(E22,"0"))</f>
+        <v>2.7</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="51">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="15"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3224,19 +3424,15 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-    </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="V22" s="49"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>35</v>
       </c>
@@ -3247,26 +3443,32 @@
         <v>20</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E23" s="11">
-        <v>7</v>
-      </c>
-      <c r="F23" s="31" t="str">
-        <f>CONCATENATE(TEXT(B23,"0"),".",TEXT(E23,"0"))</f>
-        <v>2.7</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>167</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3277,13 +3479,13 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-    </row>
-    <row r="24" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
@@ -3294,28 +3496,32 @@
         <v>20</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E24" s="11">
-        <v>8</v>
-      </c>
-      <c r="F24" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>9</v>
+      </c>
+      <c r="F24" s="26" t="str">
+        <f>CONCATENATE(TEXT(B24,"0"),".",TEXT(E24,"0"))</f>
+        <v>2.9</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="H24" s="51">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="L24" s="15"/>
-      <c r="M24" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3326,13 +3532,13 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-    </row>
-    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3343,45 +3549,53 @@
         <v>20</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E25" s="11">
-        <v>9</v>
-      </c>
-      <c r="F25" s="31" t="str">
-        <f>CONCATENATE(TEXT(B25,"0"),".",TEXT(E25,"0"))</f>
-        <v>2.9</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H25" s="51">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-    </row>
-    <row r="26" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
@@ -3392,31 +3606,35 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11">
-        <v>10</v>
-      </c>
-      <c r="F26" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.10</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.11</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H26" s="51">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3424,13 +3642,13 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-    </row>
-    <row r="27" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X26" s="34"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+    </row>
+    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
@@ -3441,31 +3659,35 @@
         <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="11">
-        <v>11</v>
-      </c>
-      <c r="F27" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.11</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="51">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>108</v>
+      <c r="L27" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3473,13 +3695,13 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-    </row>
-    <row r="28" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X27" s="34"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
@@ -3490,47 +3712,47 @@
         <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" s="11">
-        <v>12</v>
-      </c>
-      <c r="F28" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.13</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-    </row>
-    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="X28" s="34"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+    </row>
+    <row r="29" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -3541,26 +3763,32 @@
         <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E29" s="11">
-        <v>13</v>
-      </c>
-      <c r="F29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.13</v>
+        <v>14</v>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.14</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="H29" s="51">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3571,13 +3799,13 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-    </row>
-    <row r="30" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X29" s="34"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -3588,28 +3816,30 @@
         <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E30" s="11">
-        <v>14</v>
-      </c>
-      <c r="F30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.14</v>
+        <v>15</v>
+      </c>
+      <c r="F30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.15</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="H30" s="51">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="J30" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3620,13 +3850,13 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-    </row>
-    <row r="31" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+    </row>
+    <row r="31" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>35</v>
       </c>
@@ -3637,26 +3867,26 @@
         <v>20</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11">
-        <v>15</v>
-      </c>
-      <c r="F31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>16</v>
+      </c>
+      <c r="F31" s="26" t="str">
+        <f t="shared" ref="F31:F32" si="3">CONCATENATE(TEXT(B31,"0"),".",TEXT(E31,"0"))</f>
+        <v>2.16</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.5</v>
+        <v>127</v>
+      </c>
+      <c r="H31" s="51">
+        <v>2</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3671,13 +3901,13 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-    </row>
-    <row r="32" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="X31" s="34"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+    </row>
+    <row r="32" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
@@ -3688,22 +3918,26 @@
         <v>20</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E32" s="11">
-        <v>16</v>
-      </c>
-      <c r="F32" s="31" t="str">
-        <f t="shared" ref="F32:F33" si="2">CONCATENATE(TEXT(B32,"0"),".",TEXT(E32,"0"))</f>
-        <v>2.16</v>
+        <v>17</v>
+      </c>
+      <c r="F32" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>2.17</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H32" s="51">
+        <v>2</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="J32" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3718,13 +3952,13 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-    </row>
-    <row r="33" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="X32" s="34"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+    </row>
+    <row r="33" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -3735,22 +3969,26 @@
         <v>20</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E33" s="11">
-        <v>17</v>
-      </c>
-      <c r="F33" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>2.17</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" ref="F33" si="4">CONCATENATE(TEXT(B33,"0"),".",TEXT(E33,"0"))</f>
+        <v>2.18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="H33" s="51">
+        <v>2</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3765,41 +4003,45 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-    </row>
-    <row r="34" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="X33" s="34"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+    </row>
+    <row r="34" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="11">
-        <v>18</v>
-      </c>
-      <c r="F34" s="31" t="str">
-        <f t="shared" ref="F34" si="3">CONCATENATE(TEXT(B34,"0"),".",TEXT(E34,"0"))</f>
-        <v>2.18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="51">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3812,13 +4054,13 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-    </row>
-    <row r="35" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="X34" s="38"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
@@ -3828,24 +4070,28 @@
       <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="11">
+        <v>2</v>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="15" t="s">
-        <v>141</v>
+      <c r="K35" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3859,13 +4105,13 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="44"/>
+      <c r="X35" s="38"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>35</v>
       </c>
@@ -3879,42 +4125,46 @@
         <v>16</v>
       </c>
       <c r="E36" s="11">
+        <v>3</v>
+      </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="51">
         <v>2</v>
       </c>
-      <c r="F36" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="V36" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="W36" s="3"/>
-      <c r="X36" s="44"/>
+      <c r="X36" s="38"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
@@ -3925,49 +4175,49 @@
         <v>25</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E37" s="11">
-        <v>3</v>
-      </c>
-      <c r="F37" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>4</v>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+      <c r="H37" s="51">
+        <v>1</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="R37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="V37" s="4"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="44"/>
+      <c r="X37" s="38"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
     </row>
-    <row r="38" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
@@ -3978,25 +4228,27 @@
         <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E38" s="11">
-        <v>4</v>
-      </c>
-      <c r="F38" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>5</v>
+      </c>
+      <c r="F38" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="17" t="s">
-        <v>40</v>
+        <v>137</v>
+      </c>
+      <c r="H38" s="51">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4004,21 +4256,19 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="4"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="44"/>
+      <c r="X38" s="38"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
@@ -4029,234 +4279,250 @@
         <v>25</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E39" s="11">
-        <v>5</v>
-      </c>
-      <c r="F39" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>6</v>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="17" t="s">
-        <v>40</v>
+        <v>139</v>
+      </c>
+      <c r="H39" s="51">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L39" s="3"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="R39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="4"/>
+      <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="44"/>
+      <c r="X39" s="38"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="11">
-        <v>3</v>
+      <c r="B40" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" s="11">
-        <v>6</v>
-      </c>
-      <c r="F40" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F40" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>X.1</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="51">
+        <v>1</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="42"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="R40" s="43"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="44"/>
+      <c r="X40" s="39"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>X.2</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="51">
         <v>1</v>
       </c>
-      <c r="F41" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>X.1</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="48"/>
+      <c r="L41" s="42"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="49"/>
+      <c r="R41" s="43"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="45"/>
+      <c r="X41" s="39"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="47">
-        <v>2</v>
-      </c>
-      <c r="F42" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>X.2</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="3"/>
+      <c r="E42" s="41">
+        <v>3</v>
+      </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>X.3</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="51">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="48"/>
+      <c r="L42" s="42" t="s">
+        <v>178</v>
+      </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="49"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="45"/>
+      <c r="X42" s="39"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="45"/>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="39"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
     </row>
-    <row r="44" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="H44" s="17"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -4278,57 +4544,57 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+    <row r="45" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
+        <v>150</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
     </row>
-    <row r="46" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="34"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="H46" s="18"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -4350,19 +4616,19 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="34"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="H47" s="18"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -4384,21 +4650,21 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
-    <row r="48" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="34"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="H48" s="18"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -4420,21 +4686,21 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
     </row>
-    <row r="49" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="34"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="H49" s="18"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -4456,15 +4722,15 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
     </row>
-    <row r="50" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="34"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -4486,21 +4752,21 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
     </row>
-    <row r="51" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="34"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="H51" s="18"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -4522,21 +4788,21 @@
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
     </row>
-    <row r="52" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="34"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="H52" s="18"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -4558,21 +4824,21 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
     </row>
-    <row r="53" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="34"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="H53" s="18"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -4594,21 +4860,21 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
     </row>
-    <row r="54" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="34"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="H54" s="18"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -4630,21 +4896,21 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="34"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="H55" s="18"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -4666,21 +4932,21 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
     </row>
-    <row r="56" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="34"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="H56" s="18"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -4702,21 +4968,21 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="34"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="H57" s="18"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -4738,21 +5004,21 @@
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
     </row>
-    <row r="58" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="34"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="H58" s="18"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -4774,21 +5040,21 @@
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
     </row>
-    <row r="59" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="34"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H59" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="H59" s="18"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4810,21 +5076,21 @@
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
     </row>
-    <row r="60" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="34"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="H60" s="18"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -4846,29 +5112,11 @@
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
     </row>
-    <row r="1048369" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048369" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:IV60"/>
-  <conditionalFormatting sqref="H19:I19">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="3Signs">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H1048576 H1:H31 H35:H59">
-    <cfRule type="iconSet" priority="12">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="0.9"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H60:I60">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="16">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4877,110 +5125,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="15">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="0.9"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I32">
-    <cfRule type="iconSet" priority="9">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="iconSet" priority="8">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="iconSet" priority="7">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="0.9"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:I34">
-    <cfRule type="iconSet" priority="6">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="iconSet" priority="5">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="iconSet" priority="4">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="0.9"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="iconSet" priority="2">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="0.9"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H43 H2:H31">
-    <cfRule type="iconSet" priority="19">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:I1048381 H2:I31 H35:I59">
-    <cfRule type="iconSet" priority="20">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -4990,5 +5139,30 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{FDAB317A-C65D-4E31-9444-9E1253607931}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H2:H42</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/userstories.xlsx
+++ b/docs/userstories.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b017169\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b032672\Desktop\GovCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="9170"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IV$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$IX$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$Y$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
   <si>
     <t>Aktør</t>
   </si>
@@ -125,9 +126,6 @@
     <t>Som anvender ønsker vi samarbejdsfora på flere niveauer, hvor vi kan beskrive vores behov og påvirke prioriteringen af roadmap, med henblik at sikre at platformen er anvendelig for vores applikationer.</t>
   </si>
   <si>
-    <t>SIT</t>
-  </si>
-  <si>
     <t>[api] anvender snitflader der kan implementeres på andre platforme.</t>
   </si>
   <si>
@@ -177,9 +175,6 @@
   </si>
   <si>
     <t>At der læse adgang til incidents håndteringen i collab, så der er enighed om hvem, hvad og hvornår.</t>
-  </si>
-  <si>
-    <t>Er den i leverancen?</t>
   </si>
   <si>
     <t>ID</t>
@@ -382,9 +377,6 @@
     <t xml:space="preserve">Capacity planing i egen proces der ikke har med idriftsættelse at gøre. </t>
   </si>
   <si>
-    <t xml:space="preserve">At servicemodellen er ens for alle. </t>
-  </si>
-  <si>
     <t>Tilføjelse til eksisterende kundeaftaler, med intro til direktioner</t>
   </si>
   <si>
@@ -430,9 +422,6 @@
     <t>Som udbyder ønsker jeg et tydeligt overblik over aftalte og leverede serviceniveauer, så jeg kan indgå i dialog med anvender om serviceniveauer.</t>
   </si>
   <si>
-    <t xml:space="preserve">månedlige rapporter for platform og sum af anvenderes  applikationer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">månedlige rapporter for platform og anvenders applikationer. </t>
   </si>
   <si>
@@ -529,57 +518,21 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Uklarhed om genstart sker automatisk</t>
-  </si>
-  <si>
-    <t>Er det DMI der prøver om det kan lade sig gøre?</t>
-  </si>
-  <si>
     <t>Skal indeholde kontaktoplysninger per service. Husk mulighed for funktionspostkasse?</t>
   </si>
   <si>
-    <t>Uklarhed om hvilke kontaktoplysninger. Personlige?</t>
-  </si>
-  <si>
-    <t>Hvem har ansvar for at beskrive hvilke?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uklart hvilke begrænsninger der er nødvendige. </t>
-  </si>
-  <si>
-    <t>Ingen har endnu prøvet det fra applikationer. Hvem gør det?</t>
-  </si>
-  <si>
     <t>Skal beskrive hvilken criticality issues har i SITs eksisterende service-sprog-</t>
   </si>
   <si>
-    <t xml:space="preserve">Leve tid på 5+5. Afklar tidshorisonter. Liste tilgængelige services. </t>
-  </si>
-  <si>
-    <t>Accepteret af SIT?</t>
-  </si>
-  <si>
     <t>Roadmappet indeholder estimater over forbrug i form af ressourcer. "hvor meget kan vi tage ind hvornår…</t>
   </si>
   <si>
-    <t>Pligt til at rapportere?</t>
-  </si>
-  <si>
-    <t>Accepteret af SIT? DMI?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Responstid på incidents. Tilkald af 3. part. dialog frem for økonomiske sanktioner. </t>
   </si>
   <si>
     <t>Servicemodel skal kunne anvendes som bilag i udbud. Kort beskrivelse af 5+5.</t>
   </si>
   <si>
-    <t>Accepteret af SIT? Har applikationer id-er?</t>
-  </si>
-  <si>
-    <t>Mangler tidspunkt for 'go-live'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sikre at den er beskrevet som service. </t>
   </si>
   <si>
@@ -592,42 +545,18 @@
     <t>Findes der er en PaaS+ aftale? Hvor dette optræder?</t>
   </si>
   <si>
-    <t xml:space="preserve">Drill service tilgængelig. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beskriver konsekvens ved anvendels af services med begrænset support. </t>
   </si>
   <si>
-    <t>Manglende enighed om antal af fora…</t>
-  </si>
-  <si>
     <t>Anvender deltager i fora, med mandat til valg af service</t>
   </si>
   <si>
     <t>Fora ikke identificeret.</t>
   </si>
   <si>
-    <t>Findes der en plan for at forsøge at flytte en service ud af SIT?</t>
-  </si>
-  <si>
-    <t>Er det accepteret af SIT?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMI vil gerne se udkast til servicemodel. </t>
-  </si>
-  <si>
-    <t>Netværks holdes udenfor.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eksplict i model at data kun kan komme ind og ud af platform via applikationer. </t>
   </si>
   <si>
-    <t>Drill må optræder ikke på 5+5, men på listen over andre tilgængelig services med uklar support.</t>
-  </si>
-  <si>
-    <t>Kan vi overveje at fjerne denne user story?</t>
-  </si>
-  <si>
     <t>Et eksempel på eksisterende rapporter`?</t>
   </si>
   <si>
@@ -637,12 +566,6 @@
     <t>Har vi en plan for en vurdering hos mulige anvendere/leverandører?</t>
   </si>
   <si>
-    <t xml:space="preserve">Er der nogen der har set udkast til en prismodel endnu? Den bør fremgå at servicemodel. </t>
-  </si>
-  <si>
-    <t>Er DMI tilfreds med hensigterne?</t>
-  </si>
-  <si>
     <t>Bruger DMI og SIT mattermost?</t>
   </si>
   <si>
@@ -656,6 +579,84 @@
   </si>
   <si>
     <t>DMI anvender OJAI</t>
+  </si>
+  <si>
+    <t>Drill er ikke del af  5+5-services, men på listen over andre tilgængelig services med uklar support.</t>
+  </si>
+  <si>
+    <t>Prioritet</t>
+  </si>
+  <si>
+    <t>Prioritetsimplementering</t>
+  </si>
+  <si>
+    <t>Har anvender pligt til at rapportere - hvor sker det i så tilfælde?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levetid på 5+5. Afklar tidshorisonter. Liste tilgængelige services. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">månedlige rapporter for platform og sum af anvenderes applikationer. </t>
+  </si>
+  <si>
+    <t>Udestår udkast til prismodel</t>
+  </si>
+  <si>
+    <t>adgang for anvender, udbyder og professionel service efter behov.
+Log indgår i chat. Log fra chat kan eksporteres.</t>
+  </si>
+  <si>
+    <t>Beskrivelse i servicemodel.</t>
+  </si>
+  <si>
+    <t>Paas+ User stories</t>
+  </si>
+  <si>
+    <t>DMI gør i dag, men der mangler beskrivelse heraf i PaaS+ aftale</t>
+  </si>
+  <si>
+    <t>At servicemodellen er ens for alle. 
+Netværksovervågning er ikke del af generel service</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg at kunne gøre brug af en indekseringsservice for at forbedre svartider i mine applikationer</t>
+  </si>
+  <si>
+    <t>Har applikationer id-er?</t>
+  </si>
+  <si>
+    <t>Udestår antal og beskrivelse af fora</t>
+  </si>
+  <si>
+    <t>Oppetider repræsenterer ressourcer. Servicemodel beskriver oppetider</t>
+  </si>
+  <si>
+    <t>SIT yder service i dag. Mangler beskrivelse af service.</t>
+  </si>
+  <si>
+    <t>Mangler udkast til servicemodel. Mangler beskrivelse af forhold imellem servicemodel og øvrige kundeaftaler. Mangler tidspunkt for offentliggørelse</t>
+  </si>
+  <si>
+    <t>Automatisering ikke afprøvet.</t>
+  </si>
+  <si>
+    <t>Adgang til stat er begrænset. Uklart hvilke begrænsninger der er nødvendige derudover.</t>
+  </si>
+  <si>
+    <t>Overvågning finder sted. Mangler at registrere kontaktoplysninger og færddiggøre kontaktkanaler</t>
+  </si>
+  <si>
+    <t>Kafka er åben på port. Mangler afprøvning.</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg information om platformens benchmark performance, så jeg kan optimere min applikations performance</t>
+  </si>
+  <si>
+    <t>Udstilles information på API?
+Har DMI forsøgt integration?</t>
+  </si>
+  <si>
+    <t>Som anvender ønsker jeg kort ingest tid på platformen, så jeg kan repopulere datasæt i tilfælde af nedbrud.</t>
   </si>
 </sst>
 </file>
@@ -736,7 +737,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +780,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -909,11 +916,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,6 +1054,43 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2205,50 +2262,52 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV1048369"/>
+  <dimension ref="A1:IX1048371"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.81640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="28.26953125" style="1" customWidth="1"/>
-    <col min="10" max="23" width="20.54296875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="40.7265625" style="36" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="35.7265625" style="36" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="20.7265625" style="36" hidden="1" customWidth="1"/>
-    <col min="29" max="256" width="8.81640625" style="36" hidden="1" customWidth="1"/>
-    <col min="257" max="16384" width="8.81640625" style="37" hidden="1"/>
+    <col min="9" max="9" width="28.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" style="1" customWidth="1"/>
+    <col min="12" max="25" width="20.54296875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="40.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="35.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="28" max="30" width="20.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="31" max="258" width="8.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="259" max="16384" width="8.81640625" style="37" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2257,59 +2316,65 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>73</v>
       </c>
       <c r="Q1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="32" t="s">
+      <c r="V1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="Y1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="34"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
-    </row>
-    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2334,35 +2399,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="34"/>
       <c r="AA2" s="35"/>
       <c r="AB2" s="35"/>
-    </row>
-    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+    </row>
+    <row r="3" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2382,13 +2449,13 @@
         <v>1.2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H3" s="51">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2396,25 +2463,27 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="4"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
+      <c r="X3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="34"/>
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
-    </row>
-    <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -2440,33 +2509,35 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
-    </row>
-    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -2492,39 +2563,41 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
+      <c r="W5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="34"/>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+    </row>
+    <row r="6" spans="1:30" ht="123" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -2540,51 +2613,53 @@
         <v>5</v>
       </c>
       <c r="F6" s="26" t="str">
-        <f t="shared" ref="F6:F42" si="1">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
+        <f t="shared" ref="F6:F43" si="1">CONCATENATE(TEXT(B6,"0"),".",TEXT(E6,"0"))</f>
         <v>1.5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H6" s="51">
         <v>1</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="14"/>
+        <v>191</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
+      <c r="X6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="34"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
-    </row>
-    <row r="7" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+    </row>
+    <row r="7" spans="1:30" ht="90.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2610,43 +2685,45 @@
         <v>1</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="14"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="U7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
+        <v>86</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
-    </row>
-    <row r="8" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+    </row>
+    <row r="8" spans="1:30" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2672,33 +2749,35 @@
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
-    </row>
-    <row r="9" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+    </row>
+    <row r="9" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -2718,43 +2797,43 @@
         <v>1.8</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H9" s="51">
         <v>1</v>
       </c>
-      <c r="I9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="4" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
+      <c r="W9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
-    </row>
-    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+    </row>
+    <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -2774,13 +2853,13 @@
         <v>1.9</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="51">
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2791,22 +2870,24 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="38"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+    </row>
+    <row r="11" spans="1:30" ht="79.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -2826,16 +2907,16 @@
         <v>1.10</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="51">
         <v>1</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2846,19 +2927,21 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
+      <c r="X11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
-    </row>
-    <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -2878,13 +2961,13 @@
         <v>1.11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="51">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2898,19 +2981,21 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="X12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
-    </row>
-    <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+    </row>
+    <row r="13" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -2930,13 +3015,13 @@
         <v>1.12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="51">
         <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2950,19 +3035,21 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="X13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
-    </row>
-    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+    </row>
+    <row r="14" spans="1:30" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -2987,34 +3074,34 @@
       <c r="H14" s="51">
         <v>2</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="34"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
-    </row>
-    <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+    </row>
+    <row r="15" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -3034,39 +3121,41 @@
         <v>1.14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="51">
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="S15" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="34"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
-    </row>
-    <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+    </row>
+    <row r="16" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="11">
         <v>2</v>
@@ -3090,16 +3179,14 @@
       <c r="H16" s="51">
         <v>2</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3109,15 +3196,17 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="34"/>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
-    </row>
-    <row r="17" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+    </row>
+    <row r="17" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="11">
         <v>2</v>
@@ -3136,23 +3225,23 @@
         <v>2.2</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="51">
         <v>2</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="I17" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="14" t="s">
-        <v>116</v>
+      <c r="L17" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -3162,15 +3251,17 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="34"/>
       <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
-    </row>
-    <row r="18" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+    </row>
+    <row r="18" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
@@ -3189,23 +3280,23 @@
         <v>2.3</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H18" s="51">
         <v>2</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="I18" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="4" t="s">
-        <v>112</v>
+      <c r="L18" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -3215,15 +3306,17 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="34"/>
       <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
-    </row>
-    <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+    </row>
+    <row r="19" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
@@ -3242,40 +3335,42 @@
         <v>2.4</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H19" s="51">
         <v>2</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>94</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
-        <v>180</v>
+      <c r="L19" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="34"/>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35"/>
-    </row>
-    <row r="20" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+    </row>
+    <row r="20" spans="1:30" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
@@ -3294,21 +3389,19 @@
         <v>2.5</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H20" s="51">
         <v>1</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -3316,21 +3409,23 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z20" s="34"/>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
-    </row>
-    <row r="21" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+    </row>
+    <row r="21" spans="1:30" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
@@ -3349,21 +3444,21 @@
         <v>2.6</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H21" s="51">
         <v>1</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="14" t="s">
-        <v>36</v>
+      <c r="L21" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -3371,21 +3466,23 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z21" s="34"/>
       <c r="AA21" s="35"/>
       <c r="AB21" s="35"/>
-    </row>
-    <row r="22" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+    </row>
+    <row r="22" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="11">
         <v>2</v>
@@ -3404,17 +3501,17 @@
         <v>2.7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H22" s="51">
         <v>1</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3424,17 +3521,19 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="49"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="34"/>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35"/>
-    </row>
-    <row r="23" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+    </row>
+    <row r="23" spans="1:30" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -3453,24 +3552,22 @@
         <v>2.8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H23" s="51">
         <v>1</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -3479,15 +3576,17 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="34"/>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35"/>
-    </row>
-    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+    </row>
+    <row r="24" spans="1:30" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="11">
         <v>2</v>
@@ -3496,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="11">
         <v>9</v>
@@ -3506,24 +3605,22 @@
         <v>2.9</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H24" s="51">
         <v>2</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -3532,15 +3629,17 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="34"/>
       <c r="AA24" s="35"/>
       <c r="AB24" s="35"/>
-    </row>
-    <row r="25" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+    </row>
+    <row r="25" spans="1:30" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
@@ -3559,45 +3658,45 @@
         <v>2.10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="51">
         <v>1</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="M25" s="15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="34"/>
       <c r="AA25" s="35"/>
       <c r="AB25" s="35"/>
-    </row>
-    <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+    </row>
+    <row r="26" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
@@ -3616,41 +3715,41 @@
         <v>2.11</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H26" s="51">
         <v>2</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="34"/>
       <c r="AA26" s="35"/>
       <c r="AB26" s="35"/>
-    </row>
-    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+    </row>
+    <row r="27" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
@@ -3669,41 +3768,43 @@
         <v>2.12</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H27" s="51">
         <v>2</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="S27" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="34"/>
       <c r="AA27" s="35"/>
       <c r="AB27" s="35"/>
-    </row>
-    <row r="28" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+    </row>
+    <row r="28" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -3722,19 +3823,19 @@
         <v>2.13</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="51">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>107</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3746,15 +3847,17 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="34"/>
       <c r="AA28" s="35"/>
       <c r="AB28" s="35"/>
-    </row>
-    <row r="29" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+    </row>
+    <row r="29" spans="1:30" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -3773,24 +3876,24 @@
         <v>2.14</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H29" s="51">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="L29" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -3799,15 +3902,17 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="34"/>
       <c r="AA29" s="35"/>
       <c r="AB29" s="35"/>
-    </row>
-    <row r="30" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+    </row>
+    <row r="30" spans="1:30" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -3816,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="11">
         <v>15</v>
@@ -3826,19 +3931,19 @@
         <v>2.15</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H30" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3850,15 +3955,17 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="34"/>
       <c r="AA30" s="35"/>
       <c r="AB30" s="35"/>
-    </row>
-    <row r="31" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+    </row>
+    <row r="31" spans="1:30" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -3877,19 +3984,19 @@
         <v>2.16</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H31" s="51">
         <v>2</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3901,15 +4008,17 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="34"/>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35"/>
-    </row>
-    <row r="32" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+    </row>
+    <row r="32" spans="1:30" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -3928,19 +4037,19 @@
         <v>2.17</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H32" s="51">
         <v>2</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3952,15 +4061,17 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="34"/>
       <c r="AA32" s="35"/>
       <c r="AB32" s="35"/>
-    </row>
-    <row r="33" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+    </row>
+    <row r="33" spans="1:258" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -3969,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="11">
         <v>18</v>
@@ -3979,19 +4090,19 @@
         <v>2.18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H33" s="51">
         <v>2</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -4003,21 +4114,23 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="34"/>
       <c r="AA33" s="35"/>
       <c r="AB33" s="35"/>
-    </row>
-    <row r="34" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+    </row>
+    <row r="34" spans="1:258" ht="91.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="11">
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>9</v>
@@ -4030,20 +4143,22 @@
         <v>3.1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H34" s="51">
         <v>1</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>193</v>
+      <c r="I34" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4054,21 +4169,23 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="38"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
-    </row>
-    <row r="35" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+    </row>
+    <row r="35" spans="1:258" ht="90.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="11">
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>16</v>
@@ -4081,20 +4198,20 @@
         <v>3.2</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H35" s="51">
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="50" t="s">
-        <v>37</v>
-      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="50" t="s">
+        <v>36</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4105,21 +4222,23 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="38"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
-    </row>
-    <row r="36" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+    </row>
+    <row r="36" spans="1:258" ht="82.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -4132,47 +4251,49 @@
         <v>3.3</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H36" s="51">
         <v>2</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
+      <c r="X36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="38"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
-    </row>
-    <row r="37" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+    </row>
+    <row r="37" spans="1:258" ht="111.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>19</v>
@@ -4185,47 +4306,51 @@
         <v>3.4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H37" s="51">
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="38"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
-    </row>
-    <row r="38" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+    </row>
+    <row r="38" spans="1:258" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>9</v>
@@ -4238,20 +4363,20 @@
         <v>3.5</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H38" s="51">
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4260,23 +4385,25 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="4"/>
+      <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="38"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
-    </row>
-    <row r="39" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+    </row>
+    <row r="39" spans="1:258" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -4289,344 +4416,581 @@
         <v>3.6</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H39" s="51">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="38"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
-    </row>
-    <row r="40" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+    </row>
+    <row r="40" spans="1:258" s="62" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="60"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="61"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="67"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="67"/>
+      <c r="AW40" s="67"/>
+      <c r="AX40" s="67"/>
+      <c r="AY40" s="67"/>
+      <c r="AZ40" s="67"/>
+      <c r="BA40" s="67"/>
+      <c r="BB40" s="67"/>
+      <c r="BC40" s="67"/>
+      <c r="BD40" s="67"/>
+      <c r="BE40" s="67"/>
+      <c r="BF40" s="67"/>
+      <c r="BG40" s="67"/>
+      <c r="BH40" s="67"/>
+      <c r="BI40" s="67"/>
+      <c r="BJ40" s="67"/>
+      <c r="BK40" s="67"/>
+      <c r="BL40" s="67"/>
+      <c r="BM40" s="67"/>
+      <c r="BN40" s="67"/>
+      <c r="BO40" s="67"/>
+      <c r="BP40" s="67"/>
+      <c r="BQ40" s="67"/>
+      <c r="BR40" s="67"/>
+      <c r="BS40" s="67"/>
+      <c r="BT40" s="67"/>
+      <c r="BU40" s="67"/>
+      <c r="BV40" s="67"/>
+      <c r="BW40" s="67"/>
+      <c r="BX40" s="67"/>
+      <c r="BY40" s="67"/>
+      <c r="BZ40" s="67"/>
+      <c r="CA40" s="67"/>
+      <c r="CB40" s="67"/>
+      <c r="CC40" s="67"/>
+      <c r="CD40" s="67"/>
+      <c r="CE40" s="67"/>
+      <c r="CF40" s="67"/>
+      <c r="CG40" s="67"/>
+      <c r="CH40" s="67"/>
+      <c r="CI40" s="67"/>
+      <c r="CJ40" s="67"/>
+      <c r="CK40" s="67"/>
+      <c r="CL40" s="67"/>
+      <c r="CM40" s="67"/>
+      <c r="CN40" s="67"/>
+      <c r="CO40" s="67"/>
+      <c r="CP40" s="67"/>
+      <c r="CQ40" s="67"/>
+      <c r="CR40" s="67"/>
+      <c r="CS40" s="67"/>
+      <c r="CT40" s="67"/>
+      <c r="CU40" s="67"/>
+      <c r="CV40" s="67"/>
+      <c r="CW40" s="67"/>
+      <c r="CX40" s="67"/>
+      <c r="CY40" s="67"/>
+      <c r="CZ40" s="67"/>
+      <c r="DA40" s="67"/>
+      <c r="DB40" s="67"/>
+      <c r="DC40" s="67"/>
+      <c r="DD40" s="67"/>
+      <c r="DE40" s="67"/>
+      <c r="DF40" s="67"/>
+      <c r="DG40" s="67"/>
+      <c r="DH40" s="67"/>
+      <c r="DI40" s="67"/>
+      <c r="DJ40" s="67"/>
+      <c r="DK40" s="67"/>
+      <c r="DL40" s="67"/>
+      <c r="DM40" s="67"/>
+      <c r="DN40" s="67"/>
+      <c r="DO40" s="67"/>
+      <c r="DP40" s="67"/>
+      <c r="DQ40" s="67"/>
+      <c r="DR40" s="67"/>
+      <c r="DS40" s="67"/>
+      <c r="DT40" s="67"/>
+      <c r="DU40" s="67"/>
+      <c r="DV40" s="67"/>
+      <c r="DW40" s="67"/>
+      <c r="DX40" s="67"/>
+      <c r="DY40" s="67"/>
+      <c r="DZ40" s="67"/>
+      <c r="EA40" s="67"/>
+      <c r="EB40" s="67"/>
+      <c r="EC40" s="67"/>
+      <c r="ED40" s="67"/>
+      <c r="EE40" s="67"/>
+      <c r="EF40" s="67"/>
+      <c r="EG40" s="67"/>
+      <c r="EH40" s="67"/>
+      <c r="EI40" s="67"/>
+      <c r="EJ40" s="67"/>
+      <c r="EK40" s="67"/>
+      <c r="EL40" s="67"/>
+      <c r="EM40" s="67"/>
+      <c r="EN40" s="67"/>
+      <c r="EO40" s="67"/>
+      <c r="EP40" s="67"/>
+      <c r="EQ40" s="67"/>
+      <c r="ER40" s="67"/>
+      <c r="ES40" s="67"/>
+      <c r="ET40" s="67"/>
+      <c r="EU40" s="67"/>
+      <c r="EV40" s="67"/>
+      <c r="EW40" s="67"/>
+      <c r="EX40" s="67"/>
+      <c r="EY40" s="67"/>
+      <c r="EZ40" s="67"/>
+      <c r="FA40" s="67"/>
+      <c r="FB40" s="67"/>
+      <c r="FC40" s="67"/>
+      <c r="FD40" s="67"/>
+      <c r="FE40" s="67"/>
+      <c r="FF40" s="67"/>
+      <c r="FG40" s="67"/>
+      <c r="FH40" s="67"/>
+      <c r="FI40" s="67"/>
+      <c r="FJ40" s="67"/>
+      <c r="FK40" s="67"/>
+      <c r="FL40" s="67"/>
+      <c r="FM40" s="67"/>
+      <c r="FN40" s="67"/>
+      <c r="FO40" s="67"/>
+      <c r="FP40" s="67"/>
+      <c r="FQ40" s="67"/>
+      <c r="FR40" s="67"/>
+      <c r="FS40" s="67"/>
+      <c r="FT40" s="67"/>
+      <c r="FU40" s="67"/>
+      <c r="FV40" s="67"/>
+      <c r="FW40" s="67"/>
+      <c r="FX40" s="67"/>
+      <c r="FY40" s="67"/>
+      <c r="FZ40" s="67"/>
+      <c r="GA40" s="67"/>
+      <c r="GB40" s="67"/>
+      <c r="GC40" s="67"/>
+      <c r="GD40" s="67"/>
+      <c r="GE40" s="67"/>
+      <c r="GF40" s="67"/>
+      <c r="GG40" s="67"/>
+      <c r="GH40" s="67"/>
+      <c r="GI40" s="67"/>
+      <c r="GJ40" s="67"/>
+      <c r="GK40" s="67"/>
+      <c r="GL40" s="67"/>
+      <c r="GM40" s="67"/>
+      <c r="GN40" s="67"/>
+      <c r="GO40" s="67"/>
+      <c r="GP40" s="67"/>
+      <c r="GQ40" s="67"/>
+      <c r="GR40" s="67"/>
+      <c r="GS40" s="67"/>
+      <c r="GT40" s="67"/>
+      <c r="GU40" s="67"/>
+      <c r="GV40" s="67"/>
+      <c r="GW40" s="67"/>
+      <c r="GX40" s="67"/>
+      <c r="GY40" s="67"/>
+      <c r="GZ40" s="67"/>
+      <c r="HA40" s="67"/>
+      <c r="HB40" s="67"/>
+      <c r="HC40" s="67"/>
+      <c r="HD40" s="67"/>
+      <c r="HE40" s="67"/>
+      <c r="HF40" s="67"/>
+      <c r="HG40" s="67"/>
+      <c r="HH40" s="67"/>
+      <c r="HI40" s="67"/>
+      <c r="HJ40" s="67"/>
+      <c r="HK40" s="67"/>
+      <c r="HL40" s="67"/>
+      <c r="HM40" s="67"/>
+      <c r="HN40" s="67"/>
+      <c r="HO40" s="67"/>
+      <c r="HP40" s="67"/>
+      <c r="HQ40" s="67"/>
+      <c r="HR40" s="67"/>
+      <c r="HS40" s="67"/>
+      <c r="HT40" s="67"/>
+      <c r="HU40" s="67"/>
+      <c r="HV40" s="67"/>
+      <c r="HW40" s="67"/>
+      <c r="HX40" s="67"/>
+      <c r="HY40" s="67"/>
+      <c r="HZ40" s="67"/>
+      <c r="IA40" s="67"/>
+      <c r="IB40" s="67"/>
+      <c r="IC40" s="67"/>
+      <c r="ID40" s="67"/>
+      <c r="IE40" s="67"/>
+      <c r="IF40" s="67"/>
+      <c r="IG40" s="67"/>
+      <c r="IH40" s="67"/>
+      <c r="II40" s="67"/>
+      <c r="IJ40" s="67"/>
+      <c r="IK40" s="67"/>
+      <c r="IL40" s="67"/>
+      <c r="IM40" s="67"/>
+      <c r="IN40" s="67"/>
+      <c r="IO40" s="67"/>
+      <c r="IP40" s="67"/>
+      <c r="IQ40" s="67"/>
+      <c r="IR40" s="67"/>
+      <c r="IS40" s="67"/>
+      <c r="IT40" s="67"/>
+      <c r="IU40" s="67"/>
+      <c r="IV40" s="67"/>
+      <c r="IW40" s="67"/>
+      <c r="IX40" s="67"/>
+    </row>
+    <row r="41" spans="1:258" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>1</v>
       </c>
-      <c r="F40" s="26" t="str">
+      <c r="F41" s="26" t="str">
         <f t="shared" si="1"/>
         <v>X.1</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="51">
-        <v>1</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-    </row>
-    <row r="41" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>X.2</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>148</v>
+      <c r="G41" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="H41" s="51">
         <v>1</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="42"/>
+        <v>183</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="42"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="39"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
-    </row>
-    <row r="42" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+    </row>
+    <row r="42" spans="1:258" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>X.3</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>177</v>
+        <v>X.2</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="H42" s="51">
         <v>1</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="42" t="s">
-        <v>178</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="39"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+    </row>
+    <row r="43" spans="1:258" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="41">
+        <v>3</v>
+      </c>
+      <c r="F43" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>X.3</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="51">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
-    </row>
-    <row r="44" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+    </row>
+    <row r="44" spans="1:258" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="39"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
-    </row>
-    <row r="45" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+    </row>
+    <row r="45" spans="1:258" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-    </row>
-    <row r="46" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+    </row>
+    <row r="46" spans="1:258" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
+        <v>146</v>
+      </c>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
-    </row>
-    <row r="47" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+    </row>
+    <row r="47" spans="1:258" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="29"/>
       <c r="G47" s="8" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="5"/>
@@ -4644,25 +5008,25 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-    </row>
-    <row r="48" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+    </row>
+    <row r="48" spans="1:258" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>16</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="29"/>
       <c r="G48" s="8" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="5"/>
@@ -4680,25 +5044,27 @@
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
-    </row>
-    <row r="49" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+    </row>
+    <row r="49" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="29"/>
       <c r="G49" s="8" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="5"/>
@@ -4716,83 +5082,89 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
+      <c r="C50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+    </row>
+    <row r="52" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>16</v>
@@ -4800,7 +5172,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="29"/>
       <c r="G52" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="5"/>
@@ -4818,17 +5190,19 @@
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
-    </row>
-    <row r="53" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+    </row>
+    <row r="53" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>16</v>
@@ -4836,7 +5210,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="29"/>
       <c r="G53" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H53" s="18"/>
       <c r="I53" s="5"/>
@@ -4854,26 +5228,22 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="10"/>
       <c r="F54" s="29"/>
-      <c r="G54" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="G54" s="8"/>
       <c r="H54" s="18"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -4890,17 +5260,19 @@
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
-    </row>
-    <row r="55" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>16</v>
@@ -4908,7 +5280,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="29"/>
       <c r="G55" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="5"/>
@@ -4926,17 +5298,19 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>16</v>
@@ -4944,7 +5318,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="29"/>
       <c r="G56" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="5"/>
@@ -4962,17 +5336,19 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+    </row>
+    <row r="57" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>16</v>
@@ -4980,7 +5356,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="29"/>
       <c r="G57" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="5"/>
@@ -4998,17 +5374,19 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>16</v>
@@ -5016,7 +5394,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="29"/>
       <c r="G58" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="5"/>
@@ -5034,17 +5412,19 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+    </row>
+    <row r="59" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>16</v>
@@ -5052,7 +5432,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="29"/>
       <c r="G59" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="5"/>
@@ -5070,17 +5450,19 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>16</v>
@@ -5088,7 +5470,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="29"/>
       <c r="G60" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="5"/>
@@ -5106,16 +5488,156 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
-    </row>
-    <row r="1048369" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="C63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="C64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="18"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+    </row>
+    <row r="1048371" ht="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:IV60"/>
-  <conditionalFormatting sqref="H60:I60">
+  <autoFilter ref="A1:IX62"/>
+  <conditionalFormatting sqref="H64:K64">
     <cfRule type="iconSet" priority="16">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5124,7 +5646,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H64">
     <cfRule type="iconSet" priority="15">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5134,10 +5656,14 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="15" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5159,7 +5685,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H2:H42</xm:sqref>
+          <xm:sqref>H2:H43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
